--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="179">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="178">
   <si>
     <t>Table 26: Trade costs</t>
   </si>
@@ -1403,11 +1400,9 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1423,54 +1418,54 @@
     </row>
     <row r="2" spans="1:14" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="13">
         <v>51.830736575388698</v>
@@ -1485,10 +1480,10 @@
         <v>150.82351998057501</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="13">
         <v>336.16703528225702</v>
@@ -1503,18 +1498,18 @@
         <v>435.20329481116499</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="16">
         <v>54.747430317276702</v>
@@ -1529,10 +1524,10 @@
         <v>137.98661881179601</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="16">
         <v>92.599466721636304</v>
@@ -1547,18 +1542,18 @@
         <v>316.84431440083</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="20">
         <v>42.5639678734223</v>
@@ -1573,10 +1568,10 @@
         <v>120.527979169828</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="20">
         <v>69.398910169203702</v>
@@ -1591,18 +1586,18 @@
         <v>147.98797658569899</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="20">
         <v>42.337552905260203</v>
@@ -1617,10 +1612,10 @@
         <v>135.59360729931299</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="20">
         <v>82.384250522245907</v>
@@ -1635,18 +1630,18 @@
         <v>136.96499041920299</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="20">
         <v>85.433550548052295</v>
@@ -1661,10 +1656,10 @@
         <v>258.50444440250601</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="20">
         <v>163.19157278368499</v>
@@ -1679,18 +1674,18 @@
         <v>260.94883609623798</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="20">
         <v>56.732278108810398</v>
@@ -1705,10 +1700,10 @@
         <v>116.962586152458</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="20">
         <v>102.69736558903401</v>
@@ -1723,18 +1718,18 @@
         <v>247.47333466248</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="20">
         <v>48.564200419844603</v>
@@ -1749,10 +1744,10 @@
         <v>142.968060778611</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="20">
         <v>94.313186938407199</v>
@@ -1767,18 +1762,18 @@
         <v>247.90317529858501</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="20">
         <v>46.110370637694601</v>
@@ -1793,10 +1788,10 @@
         <v>100.179654201744</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="20">
         <v>69.126107342007003</v>
@@ -1811,36 +1806,36 @@
         <v>154.31172113926101</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="16">
         <v>213.48493359317499</v>
@@ -1855,18 +1850,18 @@
         <v>304.70353134803503</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="23">
         <v>56.051564078785397</v>
@@ -1881,10 +1876,10 @@
         <v>261.70940745154502</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="23">
         <v>77.602826597167095</v>
@@ -1899,18 +1894,18 @@
         <v>298.57828175188899</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="27">
         <v>49.209015776875901</v>
@@ -1951,10 +1946,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="20">
         <v>153.07869097667</v>
@@ -1969,10 +1964,10 @@
         <v>267.13540922660502</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="20">
         <v>438.45391652189602</v>
@@ -1987,24 +1982,24 @@
         <v>349.33841848404398</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="20">
         <v>172.64643243634299</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="20">
         <v>189.843152174556</v>
@@ -2013,10 +2008,10 @@
         <v>179.722740866816</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="20">
         <v>304.97948749005798</v>
@@ -2031,18 +2026,18 @@
         <v>241.83865383169601</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="20">
         <v>201.7094463736</v>
@@ -2057,36 +2052,36 @@
         <v>282.75507743921298</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="20">
         <v>471.98672620986702</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="13">
         <v>335.96149047020901</v>
@@ -2101,42 +2096,42 @@
         <v>269.46208584453001</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="13">
         <v>344.70110428761001</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="13">
         <v>429.58307489847698</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="13">
         <v>147.26392140112199</v>
@@ -2145,10 +2140,10 @@
         <v>164.873914570332</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="13">
         <v>303.28486766779901</v>
@@ -2157,27 +2152,27 @@
         <v>227.87032257767001</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="13">
         <v>271.03257314126802</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="16">
         <v>175.38677190354599</v>
@@ -2189,10 +2184,10 @@
         <v>141.955485050455</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="16">
         <v>275.84325969704997</v>
@@ -2207,21 +2202,21 @@
         <v>322.312985726536</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13">
         <v>204.39715892874301</v>
@@ -2233,86 +2228,86 @@
         <v>246.24305724243499</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="13">
         <v>267.95542038997002</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="C21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="20">
         <v>188.27587807278499</v>
@@ -2321,16 +2316,16 @@
         <v>238.08932020787</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="20">
         <v>510.44574566533498</v>
@@ -2339,24 +2334,24 @@
         <v>316.52153044878497</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="27">
         <v>161.22542049028399</v>
@@ -2365,7 +2360,7 @@
         <v>178.332417917887</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="28">
         <v>178.322910047676</v>
@@ -2391,31 +2386,31 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="20">
         <v>477.30214250947898</v>
@@ -2427,106 +2422,106 @@
         <v>405.68390951019597</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="20">
         <v>180.57375342713601</v>
@@ -2541,10 +2536,10 @@
         <v>227.192478895736</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="20">
         <v>262.69512530653901</v>
@@ -2559,18 +2554,18 @@
         <v>285.22270044549902</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="20">
         <v>85.617584566154605</v>
@@ -2585,10 +2580,10 @@
         <v>171.286819120968</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="20">
         <v>157.33893641499699</v>
@@ -2603,21 +2598,21 @@
         <v>268.35568312802201</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="20">
         <v>99.894812947487495</v>
@@ -2629,13 +2624,13 @@
         <v>160.34008027817501</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="20">
         <v>221.747091828219</v>
@@ -2647,21 +2642,21 @@
         <v>279.13032555960302</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="20">
         <v>99.338832195610607</v>
@@ -2673,13 +2668,13 @@
         <v>151.92597089736901</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="20">
         <v>246.83562043177901</v>
@@ -2691,18 +2686,18 @@
         <v>262.04243701134902</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="20">
         <v>127.192892240592</v>
@@ -2717,10 +2712,10 @@
         <v>250.51367948199899</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="20">
         <v>263.97888990091201</v>
@@ -2735,39 +2730,39 @@
         <v>374.69521703280998</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="20">
         <v>220.62724327086701</v>
@@ -2779,106 +2774,106 @@
         <v>305.76134135139</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="20">
         <v>112.068021144718</v>
@@ -2893,10 +2888,10 @@
         <v>166.21305583743899</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="20">
         <v>171.05206098191701</v>
@@ -2911,18 +2906,18 @@
         <v>203.38272162259</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="20">
         <v>94.546924897295497</v>
@@ -2937,10 +2932,10 @@
         <v>156.96083446585399</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="20">
         <v>241.91970874732399</v>
@@ -2955,18 +2950,18 @@
         <v>286.75889228294</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="20">
         <v>81.132179059662604</v>
@@ -2981,10 +2976,10 @@
         <v>171.468432678966</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="20">
         <v>131.46049688313499</v>
@@ -2999,18 +2994,18 @@
         <v>256.84967775838498</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="27">
         <v>97.757932850682394</v>
@@ -3051,10 +3046,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="13">
         <v>74.821543700897806</v>
@@ -3069,10 +3064,10 @@
         <v>105.884934972412</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="13">
         <v>225.440527026307</v>
@@ -3087,18 +3082,18 @@
         <v>278.07977993963698</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="20">
         <v>156.24437402953799</v>
@@ -3113,13 +3108,13 @@
         <v>134.70727870746899</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="20">
         <v>283.61760663096101</v>
@@ -3131,62 +3126,62 @@
         <v>183.89146836886499</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="13">
         <v>148.54431790312799</v>
@@ -3201,10 +3196,10 @@
         <v>152.72248479377399</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="13">
         <v>285.196453248578</v>
@@ -3219,18 +3214,18 @@
         <v>363.41437404085298</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="20">
         <v>42.973523195156702</v>
@@ -3245,10 +3240,10 @@
         <v>99.960303972723395</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="20">
         <v>84.377084218299899</v>
@@ -3263,18 +3258,18 @@
         <v>171.276172996638</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="20">
         <v>68.338757905151596</v>
@@ -3289,10 +3284,10 @@
         <v>88.682378264687998</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="20">
         <v>220.024146331976</v>
@@ -3307,18 +3302,18 @@
         <v>200.00901938220599</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="27">
         <v>54.625819307430199</v>
@@ -3359,10 +3354,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="20">
         <v>129.61582910499399</v>
@@ -3377,10 +3372,10 @@
         <v>197.49839730029001</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="20">
         <v>472.98706096349798</v>
@@ -3395,18 +3390,18 @@
         <v>348.25673668556499</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="20">
         <v>71.078059085985601</v>
@@ -3421,10 +3416,10 @@
         <v>154.26357197626101</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="20">
         <v>187.11711172014199</v>
@@ -3439,24 +3434,24 @@
         <v>257.80049680044101</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="C48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="20">
         <v>249.37258908533599</v>
@@ -3465,36 +3460,36 @@
         <v>144.27844757591899</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="20">
         <v>200.84322021604001</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="20">
         <v>78.544036115476302</v>
@@ -3509,10 +3504,10 @@
         <v>168.312666771945</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="20">
         <v>180.918691124611</v>
@@ -3527,18 +3522,18 @@
         <v>247.579353106002</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="20">
         <v>149.10171328795201</v>
@@ -3553,36 +3548,36 @@
         <v>238.17300559765999</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="20">
         <v>296.95085535952501</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" s="20">
         <v>412.98843884198101</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="C51" s="16">
         <v>85.701081038356307</v>
@@ -3597,10 +3592,10 @@
         <v>132.25617892885199</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="16">
         <v>235.125926427705</v>
@@ -3615,18 +3610,18 @@
         <v>265.92929265110303</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C52" s="20">
         <v>122.27240306080699</v>
@@ -3641,10 +3636,10 @@
         <v>147.75277411834901</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="20">
         <v>201.30472961063299</v>
@@ -3659,80 +3654,80 @@
         <v>301.24312109361199</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="20">
         <v>216.100217405395</v>
@@ -3747,18 +3742,18 @@
         <v>331.10151288740099</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C55" s="20">
         <v>78.028428020712795</v>
@@ -3773,10 +3768,10 @@
         <v>137.48123530552601</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" s="20">
         <v>141.08844050774101</v>
@@ -3791,18 +3786,18 @@
         <v>539.08201824297703</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C56" s="20">
         <v>109.571402685137</v>
@@ -3817,10 +3812,10 @@
         <v>183.855754091248</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="20">
         <v>261.90279059484402</v>
@@ -3835,18 +3830,18 @@
         <v>404.50764493274698</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="C57" s="13">
         <v>163.823825488762</v>
@@ -3861,10 +3856,10 @@
         <v>191.49005126265001</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="13">
         <v>372.61390319741201</v>
@@ -3879,18 +3874,18 @@
         <v>305.18383675515099</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C58" s="20">
         <v>87.365051188778395</v>
@@ -3905,10 +3900,10 @@
         <v>160.04741062789699</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="20">
         <v>171.04686422224199</v>
@@ -3923,21 +3918,21 @@
         <v>255.371119725055</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="C59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="20">
         <v>112.68029857245899</v>
@@ -3949,16 +3944,16 @@
         <v>168.967571749276</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="20">
         <v>424.68089844682601</v>
@@ -3967,18 +3962,18 @@
         <v>471.17375509036202</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="16">
         <v>69.779645134332299</v>
@@ -3993,10 +3988,10 @@
         <v>171.099539363519</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="16">
         <v>392.61108257242</v>
@@ -4011,18 +4006,18 @@
         <v>388.084461747327</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="27">
         <v>96.486796462000299</v>
@@ -4063,16 +4058,16 @@
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="33">
         <v>61.376151921801302</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" s="33">
         <v>107.91364571422901</v>
@@ -4090,7 +4085,7 @@
         <v>127.573790018037</v>
       </c>
       <c r="J62" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="33">
         <v>200.420669632954</v>
@@ -4107,16 +4102,16 @@
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="33">
         <v>38.9650262922842</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="33">
         <v>59.949215590552001</v>
@@ -4125,16 +4120,16 @@
         <v>78.283072789856902</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="33">
         <v>74.2376852172751</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" s="33">
         <v>118.080121334434</v>
@@ -4143,24 +4138,24 @@
         <v>144.116735474465</v>
       </c>
       <c r="M63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="37">
         <v>40.174284413825298</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="37">
         <v>49.567704807044002</v>
@@ -4178,7 +4173,7 @@
         <v>59.328203962463697</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="37">
         <v>72.378028145304299</v>
@@ -4195,16 +4190,16 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="40">
         <v>85.639945889666507</v>
@@ -4222,7 +4217,7 @@
         <v>144.34310180365901</v>
       </c>
       <c r="J65" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="40">
         <v>162.42465935190199</v>
@@ -4239,16 +4234,16 @@
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="43">
         <v>39.2664685164346</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="43">
         <v>60.374337838404799</v>
@@ -4260,13 +4255,13 @@
         <v>80.217230340500905</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" s="43">
         <v>74.8974489974497</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="43">
         <v>118.75975546127501</v>
@@ -4278,21 +4273,21 @@
         <v>146.91048134510501</v>
       </c>
       <c r="N66" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="40">
         <v>78.924444276915906</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="40">
         <v>123.262314331588</v>
@@ -4310,7 +4305,7 @@
         <v>160.89027500242</v>
       </c>
       <c r="J67" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="40">
         <v>206.30241226486601</v>
@@ -4327,16 +4322,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="40">
         <v>68.4760821903688</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="40">
         <v>132.94030169846701</v>
@@ -4354,7 +4349,7 @@
         <v>152.41738841304999</v>
       </c>
       <c r="J68" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="40">
         <v>287.73736537754201</v>
@@ -4371,16 +4366,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="40">
         <v>95.348334808057501</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="40">
         <v>131.155830172127</v>
@@ -4398,7 +4393,7 @@
         <v>197.511974693063</v>
       </c>
       <c r="J69" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="40">
         <v>220.555237196826</v>
@@ -4415,16 +4410,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="40">
         <v>133.422427024618</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="40">
         <v>165.43784868361399</v>
@@ -4442,7 +4437,7 @@
         <v>291.08639055172898</v>
       </c>
       <c r="J70" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="40">
         <v>304.89828413757903</v>
@@ -4459,16 +4454,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="40">
         <v>96.486796462000299</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="40">
         <v>128.47471969284899</v>
@@ -4486,7 +4481,7 @@
         <v>246.56573184116601</v>
       </c>
       <c r="J71" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="40">
         <v>300.22985673081598</v>
@@ -4503,16 +4498,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="40">
         <v>91.834205858882797</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="40">
         <v>137.62789626531901</v>
@@ -4530,7 +4525,7 @@
         <v>154.67090874409999</v>
       </c>
       <c r="J72" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" s="40">
         <v>208.201401468104</v>
@@ -4547,16 +4542,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="40">
         <v>50.968354472305499</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="40">
         <v>83.213970077518795</v>
@@ -4574,7 +4569,7 @@
         <v>99.921012224068903</v>
       </c>
       <c r="J73" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" s="40">
         <v>137.275260610728</v>
@@ -4591,16 +4586,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="40">
         <v>49.562443578991903</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="40">
         <v>119.163231056021</v>
@@ -4618,7 +4613,7 @@
         <v>113.399323404374</v>
       </c>
       <c r="J74" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" s="40">
         <v>254.447929809057</v>
@@ -4635,16 +4630,16 @@
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="43">
         <v>56.5123012861239</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="43">
         <v>94.039444998863303</v>
@@ -4662,7 +4657,7 @@
         <v>113.125367206592</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75" s="43">
         <v>143.63858734496</v>
@@ -4679,16 +4674,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="40">
         <v>60.781680603528798</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="40">
         <v>88.717127882000895</v>
@@ -4706,7 +4701,7 @@
         <v>111.348485960904</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" s="40">
         <v>153.33827618595299</v>
@@ -4723,16 +4718,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="40">
         <v>83.565200874825393</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="40">
         <v>88.249485141377605</v>
@@ -4750,7 +4745,7 @@
         <v>128.66479099577899</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" s="40">
         <v>129.907840744418</v>
@@ -4767,16 +4762,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="40">
         <v>27.5780689638583</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="40">
         <v>42.876386028675597</v>
@@ -4794,7 +4789,7 @@
         <v>59.9111429313404</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" s="40">
         <v>86.793767030860195</v>
@@ -4811,16 +4806,16 @@
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="43">
         <v>29.814630050013601</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="43">
         <v>46.178609478652199</v>
@@ -4838,7 +4833,7 @@
         <v>54.524664673645702</v>
       </c>
       <c r="J79" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" s="43">
         <v>92.067005935529295</v>
@@ -4855,16 +4850,16 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="40">
         <v>104.444509725359</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="40">
         <v>148.765635589933</v>
@@ -4873,16 +4868,16 @@
         <v>159.011788610547</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" s="40">
         <v>285.420281833996</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" s="40">
         <v>302.75376981635799</v>
@@ -4891,24 +4886,24 @@
         <v>320.32288037608203</v>
       </c>
       <c r="M80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N80" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="40">
         <v>72.060234591131405</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="40">
         <v>99.553734726810802</v>
@@ -4917,16 +4912,16 @@
         <v>111.56923857715699</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" s="40">
         <v>128.312695833074</v>
       </c>
       <c r="J81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="40">
         <v>218.79414722921899</v>
@@ -4935,24 +4930,24 @@
         <v>221.64538581723801</v>
       </c>
       <c r="M81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N81" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="40">
         <v>58.899804001255298</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="40">
         <v>100.31930891586499</v>
@@ -4961,16 +4956,16 @@
         <v>130.790570995992</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" s="40">
         <v>118.91890768047</v>
       </c>
       <c r="J82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" s="40">
         <v>185.143345704941</v>
@@ -4979,24 +4974,24 @@
         <v>218.21563311231</v>
       </c>
       <c r="M82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N82" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="43">
         <v>36.7491240950133</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="43">
         <v>56.5975028076111</v>
@@ -5005,16 +5000,16 @@
         <v>75.764486488020694</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" s="43">
         <v>71.028466099808398</v>
       </c>
       <c r="J83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" s="43">
         <v>110.86094486157801</v>
@@ -5023,24 +5018,24 @@
         <v>138.958282277346</v>
       </c>
       <c r="M83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="40">
         <v>78.157315830829901</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="40">
         <v>112.602806874392</v>
@@ -5049,16 +5044,16 @@
         <v>167.585822534947</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" s="40">
         <v>172.61079115522401</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" s="40">
         <v>217.50764185544301</v>
@@ -5067,68 +5062,68 @@
         <v>314.27722546145202</v>
       </c>
       <c r="M84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N84" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N85" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="40">
         <v>66.570216866287097</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="40">
         <v>125.974585333677</v>
@@ -5137,16 +5132,16 @@
         <v>142.34617003089701</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" s="40">
         <v>150.23002460915399</v>
       </c>
       <c r="J86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" s="40">
         <v>252.52984718926999</v>
@@ -5155,24 +5150,24 @@
         <v>254.78986892664099</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N86" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="40">
         <v>88.414333521384506</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="40">
         <v>97.214781299744104</v>
@@ -5181,16 +5176,16 @@
         <v>109.21782251515999</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="40">
         <v>146.54691519571799</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K87" s="40">
         <v>168.866050450046</v>
@@ -5199,24 +5194,24 @@
         <v>183.99437626906601</v>
       </c>
       <c r="M87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N87" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="40">
         <v>47.9746812291244</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="40">
         <v>80.184416644585895</v>
@@ -5225,16 +5220,16 @@
         <v>109.836302954289</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="40">
         <v>78.244512637529397</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="40">
         <v>121.231384668761</v>
@@ -5243,24 +5238,24 @@
         <v>172.24723958889001</v>
       </c>
       <c r="M88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N88" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="40">
         <v>57.958255895472902</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="40">
         <v>70.231343556760805</v>
@@ -5269,16 +5264,16 @@
         <v>87.449892792359606</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" s="40">
         <v>106.33810593748299</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" s="40">
         <v>135.92236299137801</v>
@@ -5287,24 +5282,24 @@
         <v>160.27531118502199</v>
       </c>
       <c r="M89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N89" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" s="43">
         <v>29.886308229824699</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="43">
         <v>52.704492178351103</v>
@@ -5313,16 +5308,16 @@
         <v>71.683241665095395</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" s="43">
         <v>55.803219410349001</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="43">
         <v>105.66207722802299</v>
@@ -5331,24 +5326,24 @@
         <v>133.04108664051299</v>
       </c>
       <c r="M90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="40">
         <v>79.367099268025896</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91" s="40">
         <v>118.014990105122</v>
@@ -5357,16 +5352,16 @@
         <v>162.899866805779</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" s="40">
         <v>190.21010826300301</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="40">
         <v>221.14037135491199</v>
@@ -5375,24 +5370,24 @@
         <v>330.81030170548797</v>
       </c>
       <c r="M91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N91" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="40">
         <v>90.262074832149395</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="40">
         <v>103.866762913125</v>
@@ -5401,16 +5396,16 @@
         <v>114.288802480687</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92" s="40">
         <v>135.64759681270499</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" s="40">
         <v>175.22858806241501</v>
@@ -5419,24 +5414,24 @@
         <v>213.58082746348899</v>
       </c>
       <c r="M92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N92" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="40">
         <v>136.82923030051501</v>
@@ -5445,16 +5440,16 @@
         <v>152.843301047533</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="40">
         <v>226.97595410941301</v>
@@ -5463,24 +5458,24 @@
         <v>270.96600473076001</v>
       </c>
       <c r="M93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N93" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="40">
         <v>153.74206582027401</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="40">
         <v>112.64874664658601</v>
@@ -5489,16 +5484,16 @@
         <v>130.74092053856401</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" s="40">
         <v>303.30211057060899</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" s="40">
         <v>165.53952338737</v>
@@ -5507,24 +5502,24 @@
         <v>182.60348539408301</v>
       </c>
       <c r="M94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N94" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="40">
         <v>61.843269059052403</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="40">
         <v>88.985390136149704</v>
@@ -5533,16 +5528,16 @@
         <v>187.422313331335</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" s="40">
         <v>126.67844447645</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="40">
         <v>149.431274150451</v>
@@ -5551,24 +5546,24 @@
         <v>316.29410111436999</v>
       </c>
       <c r="M95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N95" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" s="43">
         <v>90.506253006812699</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="43">
         <v>114.42354258838699</v>
@@ -5577,16 +5572,16 @@
         <v>130.08843891683</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" s="43">
         <v>134.62907203407201</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" s="43">
         <v>194.986132860537</v>
@@ -5595,24 +5590,24 @@
         <v>226.21234054348301</v>
       </c>
       <c r="M96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N96" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="40">
         <v>77.149423290903798</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="40">
         <v>122.470849215846</v>
@@ -5621,16 +5616,16 @@
         <v>172.787205764768</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" s="40">
         <v>170.09028975107199</v>
       </c>
       <c r="J97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" s="40">
         <v>230.322745408304</v>
@@ -5639,24 +5634,24 @@
         <v>310.71248501990999</v>
       </c>
       <c r="M97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N97" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="40">
         <v>97.010427435274096</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" s="40">
         <v>109.065150699225</v>
@@ -5665,16 +5660,16 @@
         <v>126.370559948601</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="40">
         <v>171.964186853141</v>
       </c>
       <c r="J98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" s="40">
         <v>194.29877487108101</v>
@@ -5683,54 +5678,54 @@
         <v>222.833473852655</v>
       </c>
       <c r="M98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N98" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" s="43">
         <v>259.76262535925503</v>
       </c>
       <c r="J99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N99" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -5751,27 +5746,27 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -5779,27 +5774,27 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5809,7 +5804,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: UNCTAD-Eora Global Value Chain (GVC) database (updated 01/09/2021).</t>
@@ -8081,10 +8081,10 @@
         <v>170</v>
       </c>
       <c r="C92" s="54">
-        <v>32669.987300000001</v>
+        <v>32517.488499999999</v>
       </c>
       <c r="D92" s="55">
-        <v>3352.4368723576699</v>
+        <v>3314.37158141906</v>
       </c>
       <c r="E92" s="55">
         <v>859.10007727000004</v>
@@ -8093,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="G92" s="55">
-        <v>2415.7736327409998</v>
+        <v>2410.6407925509998</v>
       </c>
       <c r="H92" s="54">
-        <v>936.66323961665296</v>
+        <v>903.73078886804603</v>
       </c>
       <c r="I92" s="55">
-        <v>14879.832300554101</v>
+        <v>14826.4431417994</v>
       </c>
       <c r="J92" s="55">
         <v>2073.20599954</v>
@@ -8108,43 +8108,43 @@
         <v>0</v>
       </c>
       <c r="L92" s="55">
-        <v>5823.4229982949901</v>
+        <v>5821.7194244349903</v>
       </c>
       <c r="M92" s="54">
-        <v>9056.4093022590805</v>
+        <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="56">
-        <v>6.4747505780054802</v>
+        <v>6.4693835939235003</v>
       </c>
       <c r="O92" s="57">
-        <v>0.64266218920868001</v>
+        <v>0.64079810285893002</v>
       </c>
       <c r="P92" s="57">
-        <v>0.16837657149085999</v>
+        <v>0.16846727682137</v>
       </c>
       <c r="Q92" s="57">
         <v>0</v>
       </c>
       <c r="R92" s="57">
-        <v>0.46349040479636</v>
+        <v>0.46344204697379998</v>
       </c>
       <c r="S92" s="56">
-        <v>0.17917178441230999</v>
+        <v>0.17735605588511999</v>
       </c>
       <c r="T92" s="57">
-        <v>2.9573708675804502</v>
+        <v>2.95586393404067</v>
       </c>
       <c r="U92" s="57">
-        <v>0.47558336725028</v>
+        <v>0.47583956647164999</v>
       </c>
       <c r="V92" s="57">
         <v>0</v>
       </c>
       <c r="W92" s="57">
-        <v>1.2161786366016101</v>
+        <v>1.21673487893842</v>
       </c>
       <c r="X92" s="56">
-        <v>1.7411922309788499</v>
+        <v>1.73912905510226</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1602,37 +1602,37 @@
         <v>360.69631540260002</v>
       </c>
       <c r="N4" s="20">
-        <v>8.4182870438440691</v>
+        <v>8.3658458798705801</v>
       </c>
       <c r="O4" s="21">
-        <v>0.80123674889589003</v>
+        <v>0.79624549740830997</v>
       </c>
       <c r="P4" s="21">
-        <v>0.31530066108234001</v>
+        <v>0.31333651640747001</v>
       </c>
       <c r="Q4" s="21">
-        <v>0.31809923386934003</v>
+        <v>0.31611765566984001</v>
       </c>
       <c r="R4" s="21">
-        <v>0.34448906946303998</v>
+        <v>0.34234309752306002</v>
       </c>
       <c r="S4" s="20">
-        <v>0.45674767943285</v>
+        <v>0.45390239988525</v>
       </c>
       <c r="T4" s="21">
-        <v>2.2842624877034599</v>
+        <v>2.2700328251780202</v>
       </c>
       <c r="U4" s="21">
-        <v>7.0878919045170005E-2</v>
+        <v>7.0437383493280006E-2</v>
       </c>
       <c r="V4" s="21">
-        <v>8.3179175280109999E-2</v>
+        <v>8.2661016093179995E-2</v>
       </c>
       <c r="W4" s="21">
-        <v>0.11034204416556</v>
+        <v>0.10965467567822999</v>
       </c>
       <c r="X4" s="20">
-        <v>2.1739204435379</v>
+        <v>2.1603781494997998</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -1676,37 +1676,37 @@
         <v>101.6860708249</v>
       </c>
       <c r="N5" s="26">
-        <v>9.9015639875373793</v>
+        <v>9.8485270388475499</v>
       </c>
       <c r="O5" s="27">
-        <v>4.0850647059987901</v>
+        <v>4.0631833782126598</v>
       </c>
       <c r="P5" s="27">
-        <v>2.0180343576575899</v>
+        <v>2.00722491534968</v>
       </c>
       <c r="Q5" s="27">
-        <v>2.04265946758506</v>
+        <v>2.0317181228127099</v>
       </c>
       <c r="R5" s="27">
-        <v>2.1265648977928699</v>
+        <v>2.1151741201832102</v>
       </c>
       <c r="S5" s="26">
-        <v>1.95849980820592</v>
+        <v>1.9480092580294399</v>
       </c>
       <c r="T5" s="27">
-        <v>2.4037245207900599</v>
+        <v>2.3908491594598602</v>
       </c>
       <c r="U5" s="27">
-        <v>2.2760920002790001E-2</v>
+        <v>2.2639002925059999E-2</v>
       </c>
       <c r="V5" s="27">
-        <v>4.1266338786790001E-2</v>
+        <v>4.1045298888889997E-2</v>
       </c>
       <c r="W5" s="27">
-        <v>0.12943250298695</v>
+        <v>0.12873920796523999</v>
       </c>
       <c r="X5" s="26">
-        <v>2.2742920178030999</v>
+        <v>2.2621099514946099</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -1750,37 +1750,37 @@
         <v>39.963386739050001</v>
       </c>
       <c r="N6" s="26">
-        <v>6.8585396933799396</v>
+        <v>6.6462077857913204</v>
       </c>
       <c r="O6" s="27">
-        <v>6.42816243878279</v>
+        <v>6.2291544787889599</v>
       </c>
       <c r="P6" s="27">
-        <v>1.548498117176E-2</v>
+        <v>1.5005585303519999E-2</v>
       </c>
       <c r="Q6" s="27">
-        <v>0.14820751386652001</v>
+        <v>0.14361919251166</v>
       </c>
       <c r="R6" s="27">
-        <v>0.86334718242153996</v>
+        <v>0.83661902127496002</v>
       </c>
       <c r="S6" s="26">
-        <v>5.5648152563612596</v>
+        <v>5.3925354575139997</v>
       </c>
       <c r="T6" s="27">
-        <v>1.89530431707685</v>
+        <v>1.8366280391668</v>
       </c>
       <c r="U6" s="27">
-        <v>1.1478207905409999E-2</v>
+        <v>1.112285678269E-2</v>
       </c>
       <c r="V6" s="27">
-        <v>2.4497556889210001E-2</v>
+        <v>2.3739142821770001E-2</v>
       </c>
       <c r="W6" s="27">
-        <v>0.10122143403622</v>
+        <v>9.8087743609589995E-2</v>
       </c>
       <c r="X6" s="26">
-        <v>1.7940828830406299</v>
+        <v>1.73854029555721</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -1972,37 +1972,37 @@
         <v>294.63096039991001</v>
       </c>
       <c r="N9" s="26">
-        <v>10.1630150302123</v>
+        <v>10.2191214847554</v>
       </c>
       <c r="O9" s="27">
-        <v>3.3097443590911899</v>
+        <v>3.32801630111633</v>
       </c>
       <c r="P9" s="27">
-        <v>1.9517717830416601</v>
+        <v>1.9625468330143601</v>
       </c>
       <c r="Q9" s="27">
-        <v>1.9576408095993501</v>
+        <v>1.9684482604167499</v>
       </c>
       <c r="R9" s="27">
-        <v>2.0238188879140702</v>
+        <v>2.0349916847761</v>
       </c>
       <c r="S9" s="26">
-        <v>1.28592547117711</v>
+        <v>1.2930246163402299</v>
       </c>
       <c r="T9" s="27">
-        <v>2.6878161863994698</v>
+        <v>2.7026546803143399</v>
       </c>
       <c r="U9" s="27">
-        <v>0.30657096057970001</v>
+        <v>0.30826343172265003</v>
       </c>
       <c r="V9" s="27">
-        <v>0.30862884058128998</v>
+        <v>0.31033267256060998</v>
       </c>
       <c r="W9" s="27">
-        <v>0.34258922567784</v>
+        <v>0.34448054107590997</v>
       </c>
       <c r="X9" s="26">
-        <v>2.3452269607216301</v>
+        <v>2.3581741392384301</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -2046,37 +2046,37 @@
         <v>33562.019872019999</v>
       </c>
       <c r="N10" s="26">
-        <v>21.526342427366998</v>
+        <v>21.5263382043555</v>
       </c>
       <c r="O10" s="27">
-        <v>5.7720652146347202</v>
+        <v>5.77206408227803</v>
       </c>
       <c r="P10" s="27">
-        <v>1.7249904508680001E-2</v>
+        <v>1.7249901124610001E-2</v>
       </c>
       <c r="Q10" s="27">
-        <v>7.9477767512190003E-2</v>
+        <v>7.9477751920339998E-2</v>
       </c>
       <c r="R10" s="27">
-        <v>0.19792192520919999</v>
+        <v>0.19792188638111999</v>
       </c>
       <c r="S10" s="26">
-        <v>5.5741432894255301</v>
+        <v>5.5741421958969202</v>
       </c>
       <c r="T10" s="27">
-        <v>8.8320544018148208</v>
+        <v>8.8320526691531995</v>
       </c>
       <c r="U10" s="27">
-        <v>0.10641884529275</v>
+        <v>0.10641882441563</v>
       </c>
       <c r="V10" s="27">
-        <v>0.13116863449523999</v>
+        <v>0.13116860876274</v>
       </c>
       <c r="W10" s="27">
-        <v>0.17868431283263</v>
+        <v>0.17868427777856</v>
       </c>
       <c r="X10" s="26">
-        <v>8.6533700889821894</v>
+        <v>8.6533683913746398</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -2194,37 +2194,37 @@
         <v>1055.0708172679999</v>
       </c>
       <c r="N12" s="31">
-        <v>0.66644690089169001</v>
+        <v>0.56769006949148004</v>
       </c>
       <c r="O12" s="32">
-        <v>7.8113759748679998E-2</v>
+        <v>6.6538542891620006E-2</v>
       </c>
       <c r="P12" s="32">
-        <v>3.6230978437600002E-2</v>
+        <v>3.086212365826E-2</v>
       </c>
       <c r="Q12" s="32">
-        <v>3.6552953841249999E-2</v>
+        <v>3.1136387427859999E-2</v>
       </c>
       <c r="R12" s="32">
-        <v>3.9748737147299998E-2</v>
+        <v>3.3858606474360002E-2</v>
       </c>
       <c r="S12" s="31">
-        <v>3.836502260138E-2</v>
+        <v>3.2679936417259997E-2</v>
       </c>
       <c r="T12" s="32">
-        <v>5.5203236781484701</v>
+        <v>4.7022995054378196</v>
       </c>
       <c r="U12" s="32">
-        <v>3.4712779379709999E-2</v>
+        <v>2.9568897555000001E-2</v>
       </c>
       <c r="V12" s="32">
-        <v>5.9479705967169998E-2</v>
+        <v>5.0665759520609997E-2</v>
       </c>
       <c r="W12" s="32">
-        <v>0.13376320523092999</v>
+        <v>0.11394162561391</v>
       </c>
       <c r="X12" s="31">
-        <v>5.38656047291754</v>
+        <v>4.58835787982391</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2268,37 +2268,37 @@
         <v>45287.6266558223</v>
       </c>
       <c r="N13" s="37">
-        <v>19.490532443255599</v>
+        <v>19.498716997156201</v>
       </c>
       <c r="O13" s="38">
-        <v>4.3435053287620597</v>
+        <v>4.3462372341034996</v>
       </c>
       <c r="P13" s="38">
-        <v>0.10316197057414001</v>
+        <v>0.10309962960723</v>
       </c>
       <c r="Q13" s="38">
-        <v>0.15413920569223</v>
+        <v>0.15410709357039001</v>
       </c>
       <c r="R13" s="38">
-        <v>0.25772697852972998</v>
+        <v>0.25773398989689</v>
       </c>
       <c r="S13" s="37">
-        <v>4.0857783502323297</v>
+        <v>4.0885032442066098</v>
       </c>
       <c r="T13" s="38">
-        <v>8.0098381525514597</v>
+        <v>7.9886468706951597</v>
       </c>
       <c r="U13" s="38">
-        <v>9.5237135632829997E-2</v>
+        <v>9.5162606049359999E-2</v>
       </c>
       <c r="V13" s="38">
-        <v>0.16050294056732001</v>
+        <v>0.16035923137715</v>
       </c>
       <c r="W13" s="38">
-        <v>0.20601475858366999</v>
+        <v>0.20555169989693001</v>
       </c>
       <c r="X13" s="37">
-        <v>7.8038233939677903</v>
+        <v>7.7830951707982301</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -2416,37 +2416,37 @@
         <v>1319.5871506190001</v>
       </c>
       <c r="N15" s="26">
-        <v>6.3576647733965599</v>
+        <v>6.2513126569421402</v>
       </c>
       <c r="O15" s="27">
-        <v>0.45075026380708999</v>
+        <v>0.44321003539668002</v>
       </c>
       <c r="P15" s="27">
-        <v>4.4043024686409998E-2</v>
+        <v>4.3306265348289998E-2</v>
       </c>
       <c r="Q15" s="27">
-        <v>4.2917881763199998E-3</v>
+        <v>4.2199944010599998E-3</v>
       </c>
       <c r="R15" s="27">
-        <v>6.9774095546719997E-2</v>
+        <v>6.8606902402760003E-2</v>
       </c>
       <c r="S15" s="26">
-        <v>0.38097616826037001</v>
+        <v>0.37460313299391002</v>
       </c>
       <c r="T15" s="27">
-        <v>3.4768438692465802</v>
+        <v>3.4186826233716401</v>
       </c>
       <c r="U15" s="27">
-        <v>5.0001479032590002E-2</v>
+        <v>4.9165045639119997E-2</v>
       </c>
       <c r="V15" s="27">
-        <v>5.2912268847379998E-2</v>
+        <v>5.202714325821E-2</v>
       </c>
       <c r="W15" s="27">
-        <v>9.406846164905E-2</v>
+        <v>9.249486814506E-2</v>
       </c>
       <c r="X15" s="26">
-        <v>3.38277540759753</v>
+        <v>3.3261877552265902</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -2490,37 +2490,37 @@
         <v>99.001551283560104</v>
       </c>
       <c r="N16" s="26">
-        <v>6.8138176201132401</v>
+        <v>6.8106934520817202</v>
       </c>
       <c r="O16" s="27">
-        <v>1.60806914453385</v>
+        <v>1.6073318371250001</v>
       </c>
       <c r="P16" s="27">
-        <v>7.886794015404E-2</v>
+        <v>7.8831778825529997E-2</v>
       </c>
       <c r="Q16" s="27">
-        <v>7.4783675288309995E-2</v>
+        <v>7.4749386614820001E-2</v>
       </c>
       <c r="R16" s="27">
-        <v>0.19961761318224</v>
+        <v>0.19952608755001</v>
       </c>
       <c r="S16" s="26">
-        <v>1.4084515313516</v>
+        <v>1.407805749575</v>
       </c>
       <c r="T16" s="27">
-        <v>4.4484718882183003</v>
+        <v>4.4464322425398999</v>
       </c>
       <c r="U16" s="27">
-        <v>2.1988585961E-2</v>
+        <v>2.1978504088959998E-2</v>
       </c>
       <c r="V16" s="27">
-        <v>2.549148757628E-2</v>
+        <v>2.5479799607069999E-2</v>
       </c>
       <c r="W16" s="27">
-        <v>0.1003246823466</v>
+        <v>0.10027868299898</v>
       </c>
       <c r="X16" s="26">
-        <v>4.3481472058717001</v>
+        <v>4.3461535595409302</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -2564,37 +2564,37 @@
         <v>422.43278138120002</v>
       </c>
       <c r="N17" s="15">
-        <v>7.7886437775999697</v>
+        <v>7.7474072582972298</v>
       </c>
       <c r="O17" s="16">
-        <v>0.10447227104741</v>
+        <v>0.10391914871383</v>
       </c>
       <c r="P17" s="16">
-        <v>2.4925598724400001E-3</v>
+        <v>2.4793631598599999E-3</v>
       </c>
       <c r="Q17" s="16">
-        <v>1.5904192557199999E-3</v>
+        <v>1.58199887392E-3</v>
       </c>
       <c r="R17" s="16">
-        <v>1.1237861488190001E-2</v>
+        <v>1.1178363287289999E-2</v>
       </c>
       <c r="S17" s="15">
-        <v>9.3234409559219994E-2</v>
+        <v>9.2740785426540004E-2</v>
       </c>
       <c r="T17" s="16">
-        <v>4.05213067184767</v>
+        <v>4.0306769028169898</v>
       </c>
       <c r="U17" s="16">
-        <v>2.7525007487699999E-2</v>
+        <v>2.7379277944150002E-2</v>
       </c>
       <c r="V17" s="16">
-        <v>2.9043660324970001E-2</v>
+        <v>2.888989036273E-2</v>
       </c>
       <c r="W17" s="16">
-        <v>0.18882548452166001</v>
+        <v>0.18782575902904999</v>
       </c>
       <c r="X17" s="15">
-        <v>3.8633051873260098</v>
+        <v>3.8428511437879398</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -2638,37 +2638,37 @@
         <v>1351.0401017208001</v>
       </c>
       <c r="N18" s="15">
-        <v>36.633820783319898</v>
+        <v>36.633865127788901</v>
       </c>
       <c r="O18" s="16">
-        <v>4.8627248393855602</v>
+        <v>4.8627307256116303</v>
       </c>
       <c r="P18" s="16">
-        <v>0.10842987726366</v>
+        <v>0.10843000851574</v>
       </c>
       <c r="Q18" s="16">
-        <v>0.11327293707973</v>
+        <v>0.11327307419422999</v>
       </c>
       <c r="R18" s="16">
-        <v>0.33293733252909002</v>
+        <v>0.33293773554271999</v>
       </c>
       <c r="S18" s="15">
-        <v>4.5297875068564801</v>
+        <v>4.5297929900689198</v>
       </c>
       <c r="T18" s="16">
-        <v>10.626646478273599</v>
+        <v>10.6266593416055</v>
       </c>
       <c r="U18" s="16">
-        <v>7.8741508020299996E-3</v>
+        <v>7.8741603335300003E-3</v>
       </c>
       <c r="V18" s="16">
-        <v>7.72813532433E-3</v>
+        <v>7.72814467907E-3</v>
       </c>
       <c r="W18" s="16">
-        <v>6.3851505449470006E-2</v>
+        <v>6.3851582740370005E-2</v>
       </c>
       <c r="X18" s="15">
-        <v>10.5627949728242</v>
+        <v>10.562807758865199</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -3008,37 +3008,37 @@
         <v>6345.9236747856103</v>
       </c>
       <c r="N23" s="37">
-        <v>9.0691609021363409</v>
+        <v>9.00365631956093</v>
       </c>
       <c r="O23" s="38">
-        <v>0.95546199429060996</v>
+        <v>0.94780339787046997</v>
       </c>
       <c r="P23" s="38">
-        <v>4.1550208565600003E-2</v>
+        <v>4.1303409432220002E-2</v>
       </c>
       <c r="Q23" s="38">
-        <v>1.8594969497659999E-2</v>
+        <v>1.8429807199840002E-2</v>
       </c>
       <c r="R23" s="38">
-        <v>0.10233009178282</v>
+        <v>0.10158551543953</v>
       </c>
       <c r="S23" s="37">
-        <v>0.85313190250779003</v>
+        <v>0.84621788243093998</v>
       </c>
       <c r="T23" s="38">
-        <v>4.5705864640977598</v>
+        <v>4.5385249063862902</v>
       </c>
       <c r="U23" s="38">
-        <v>3.5775259470939999E-2</v>
+        <v>3.5604943037310002E-2</v>
       </c>
       <c r="V23" s="38">
-        <v>2.3774039445499998E-2</v>
+        <v>2.3729922527039999E-2</v>
       </c>
       <c r="W23" s="38">
-        <v>0.10033653547283</v>
+        <v>9.9692224741809998E-2</v>
       </c>
       <c r="X23" s="37">
-        <v>4.4702499286249298</v>
+        <v>4.4388326816444703</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -3156,37 +3156,37 @@
         <v>40.764166191248997</v>
       </c>
       <c r="N25" s="26">
-        <v>4.0781778713755097</v>
+        <v>4.11358378760601</v>
       </c>
       <c r="O25" s="27">
-        <v>0.91558360613294998</v>
+        <v>0.92353251799584002</v>
       </c>
       <c r="P25" s="27">
-        <v>6.30558590826E-3</v>
+        <v>6.3603297309899999E-3</v>
       </c>
       <c r="Q25" s="27">
-        <v>2.844522480334E-2</v>
+        <v>2.8692180497349999E-2</v>
       </c>
       <c r="R25" s="27">
-        <v>9.2422551736170006E-2</v>
+        <v>9.3224945655170005E-2</v>
       </c>
       <c r="S25" s="26">
-        <v>0.82316105439678</v>
+        <v>0.83030757234067998</v>
       </c>
       <c r="T25" s="27">
-        <v>1.3054762962758799</v>
+        <v>1.31681017769172</v>
       </c>
       <c r="U25" s="27">
-        <v>4.3147867605800002E-3</v>
+        <v>4.3522468673700002E-3</v>
       </c>
       <c r="V25" s="27">
-        <v>1.654374209814E-2</v>
+        <v>1.668737152416E-2</v>
       </c>
       <c r="W25" s="27">
-        <v>8.7277860274830005E-2</v>
+        <v>8.8035589022110006E-2</v>
       </c>
       <c r="X25" s="26">
-        <v>1.21819843600106</v>
+        <v>1.22877458866961</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
@@ -3304,7 +3304,7 @@
         <v>904.76693970450003</v>
       </c>
       <c r="N27" s="26">
-        <v>3.9981902627121499</v>
+        <v>3.9981902627121602</v>
       </c>
       <c r="O27" s="27">
         <v>0.17118789658433001</v>
@@ -3378,37 +3378,37 @@
         <v>1882.6853766221</v>
       </c>
       <c r="N28" s="26">
-        <v>5.9895509207791999</v>
+        <v>5.9868132249957497</v>
       </c>
       <c r="O28" s="27">
-        <v>0.67309856037114002</v>
+        <v>0.67279090139720998</v>
       </c>
       <c r="P28" s="27">
-        <v>6.7524691815500004E-3</v>
+        <v>6.7493827721199998E-3</v>
       </c>
       <c r="Q28" s="27">
-        <v>8.1575298064099997E-3</v>
+        <v>8.1538011737900002E-3</v>
       </c>
       <c r="R28" s="27">
-        <v>4.8083481987619997E-2</v>
+        <v>4.8061504055109998E-2</v>
       </c>
       <c r="S28" s="26">
-        <v>0.62501507838352</v>
+        <v>0.62472939734209998</v>
       </c>
       <c r="T28" s="27">
-        <v>1.9632047970544999</v>
+        <v>1.96230745807766</v>
       </c>
       <c r="U28" s="27">
-        <v>4.1593125216600003E-2</v>
+        <v>4.1574113887540003E-2</v>
       </c>
       <c r="V28" s="27">
-        <v>4.7305917121480003E-2</v>
+        <v>4.7284294597260003E-2</v>
       </c>
       <c r="W28" s="27">
-        <v>8.9100918797279993E-2</v>
+        <v>8.9060192670580005E-2</v>
       </c>
       <c r="X28" s="26">
-        <v>1.8741038782572099</v>
+        <v>1.87324726540708</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -3526,37 +3526,37 @@
         <v>636.58414771929995</v>
       </c>
       <c r="N30" s="26">
-        <v>14.246503399515399</v>
+        <v>14.247046663723101</v>
       </c>
       <c r="O30" s="27">
-        <v>6.5760380013395503</v>
+        <v>6.57628876645538</v>
       </c>
       <c r="P30" s="27">
         <v>0</v>
       </c>
       <c r="Q30" s="27">
-        <v>8.8441409841940002E-2</v>
+        <v>8.8444782392459995E-2</v>
       </c>
       <c r="R30" s="27">
-        <v>0.39153577237196002</v>
+        <v>0.3915507028686</v>
       </c>
       <c r="S30" s="26">
-        <v>6.1845022289675899</v>
+        <v>6.1847380635867699</v>
       </c>
       <c r="T30" s="27">
-        <v>4.6851837389175</v>
+        <v>4.68536239978331</v>
       </c>
       <c r="U30" s="27">
         <v>0</v>
       </c>
       <c r="V30" s="27">
-        <v>7.6855291311860002E-2</v>
+        <v>7.6858222047050007E-2</v>
       </c>
       <c r="W30" s="27">
-        <v>0.15315443493021999</v>
+        <v>0.15316027519294001</v>
       </c>
       <c r="X30" s="26">
-        <v>4.5320293039872803</v>
+        <v>4.5322021245903699</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
@@ -3674,37 +3674,37 @@
         <v>86.850172751719995</v>
       </c>
       <c r="N32" s="26">
-        <v>14.3519499447531</v>
+        <v>13.4757846144313</v>
       </c>
       <c r="O32" s="27">
-        <v>10.445665616068901</v>
+        <v>9.8079731700832191</v>
       </c>
       <c r="P32" s="27">
         <v>0</v>
       </c>
       <c r="Q32" s="27">
-        <v>0.57531984696601002</v>
+        <v>0.54019742069653998</v>
       </c>
       <c r="R32" s="27">
-        <v>1.2904064855227599</v>
+        <v>1.21162907694834</v>
       </c>
       <c r="S32" s="26">
-        <v>9.1552591305461206</v>
+        <v>8.59634409313486</v>
       </c>
       <c r="T32" s="27">
-        <v>5.6688419798119298</v>
+        <v>5.3227675561340897</v>
       </c>
       <c r="U32" s="27">
         <v>0</v>
       </c>
       <c r="V32" s="27">
-        <v>1.8665923192490001E-2</v>
+        <v>1.752639617194E-2</v>
       </c>
       <c r="W32" s="27">
-        <v>0.17226201693363</v>
+        <v>0.16174567542258</v>
       </c>
       <c r="X32" s="26">
-        <v>5.4965799628783003</v>
+        <v>5.1610218807115</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
@@ -3748,37 +3748,37 @@
         <v>11.011435108240001</v>
       </c>
       <c r="N33" s="26">
-        <v>0.52094550440278997</v>
+        <v>0.40707402703912998</v>
       </c>
       <c r="O33" s="27">
-        <v>9.767180967472E-2</v>
+        <v>7.6322103860109999E-2</v>
       </c>
       <c r="P33" s="27">
-        <v>1.3546266462100001E-3</v>
+        <v>1.05852400941E-3</v>
       </c>
       <c r="Q33" s="27">
-        <v>3.8011405154000002E-3</v>
+        <v>2.9702638066199999E-3</v>
       </c>
       <c r="R33" s="27">
-        <v>1.188165763726E-2</v>
+        <v>9.2844917201900003E-3</v>
       </c>
       <c r="S33" s="26">
-        <v>8.5790152037460002E-2</v>
+        <v>6.7037612139909997E-2</v>
       </c>
       <c r="T33" s="27">
-        <v>0.22772473593695999</v>
+        <v>0.17794726037717001</v>
       </c>
       <c r="U33" s="27">
-        <v>5.2530468317999997E-4</v>
+        <v>4.1048034967E-4</v>
       </c>
       <c r="V33" s="27">
-        <v>1.55202294899E-3</v>
+        <v>1.2127722123800001E-3</v>
       </c>
       <c r="W33" s="27">
-        <v>1.0165194609260001E-2</v>
+        <v>7.9432237542300006E-3</v>
       </c>
       <c r="X33" s="26">
-        <v>0.21755954132769001</v>
+        <v>0.17000403662294</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
@@ -3822,37 +3822,37 @@
         <v>230.49021990700001</v>
       </c>
       <c r="N34" s="20">
-        <v>12.580144173377001</v>
+        <v>10.8535583562829</v>
       </c>
       <c r="O34" s="21">
-        <v>0.25051101834204997</v>
+        <v>0.21612915710627001</v>
       </c>
       <c r="P34" s="21">
-        <v>4.5919975632800003E-3</v>
+        <v>3.9617601227900003E-3</v>
       </c>
       <c r="Q34" s="21">
-        <v>6.71895672212E-3</v>
+        <v>5.7968007259500002E-3</v>
       </c>
       <c r="R34" s="21">
-        <v>2.699236332402E-2</v>
+        <v>2.3287745074589999E-2</v>
       </c>
       <c r="S34" s="20">
-        <v>0.22351865501803</v>
+        <v>0.19284141203168001</v>
       </c>
       <c r="T34" s="21">
-        <v>5.3138384219313002</v>
+        <v>4.5845305597008696</v>
       </c>
       <c r="U34" s="21">
-        <v>1.4047353739849999E-2</v>
+        <v>1.211939795487E-2</v>
       </c>
       <c r="V34" s="21">
-        <v>3.6338587359699998E-2</v>
+        <v>3.1351228814060002E-2</v>
       </c>
       <c r="W34" s="21">
-        <v>0.29081473548425002</v>
+        <v>0.25090131392332998</v>
       </c>
       <c r="X34" s="20">
-        <v>5.0230236864470497</v>
+        <v>4.3336292457775398</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
@@ -4044,37 +4044,37 @@
         <v>283.81099826044999</v>
       </c>
       <c r="N37" s="26">
-        <v>2.5009538656246999</v>
+        <v>2.4972181640958602</v>
       </c>
       <c r="O37" s="27">
-        <v>0.23814683832149</v>
+        <v>0.23779111584286999</v>
       </c>
       <c r="P37" s="27">
-        <v>6.1213721539049998E-2</v>
+        <v>6.1122285948699999E-2</v>
       </c>
       <c r="Q37" s="27">
-        <v>6.1997133235889998E-2</v>
+        <v>6.1904527455119998E-2</v>
       </c>
       <c r="R37" s="27">
-        <v>7.7765793527340005E-2</v>
+        <v>7.7649633930090001E-2</v>
       </c>
       <c r="S37" s="26">
-        <v>0.16038104479415999</v>
+        <v>0.16014148191277999</v>
       </c>
       <c r="T37" s="27">
-        <v>0.79211426895821002</v>
+        <v>0.79093107940551999</v>
       </c>
       <c r="U37" s="27">
-        <v>1.292102623748E-2</v>
+        <v>1.290172596244E-2</v>
       </c>
       <c r="V37" s="27">
-        <v>1.1981745020800001E-2</v>
+        <v>1.1963847760160001E-2</v>
       </c>
       <c r="W37" s="27">
-        <v>4.5268785547339999E-2</v>
+        <v>4.5201167078359999E-2</v>
       </c>
       <c r="X37" s="26">
-        <v>0.74684548341087997</v>
+        <v>0.74572991232716002</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4118,37 +4118,37 @@
         <v>7840.9599313137096</v>
       </c>
       <c r="N38" s="37">
-        <v>4.1047603329184801</v>
+        <v>4.0576655152825802</v>
       </c>
       <c r="O38" s="38">
-        <v>0.52788287542279999</v>
+        <v>0.52350022275902997</v>
       </c>
       <c r="P38" s="38">
-        <v>1.287023889719E-2</v>
+        <v>1.275925550367E-2</v>
       </c>
       <c r="Q38" s="38">
-        <v>2.0068003787620001E-2</v>
+        <v>1.9895545322780001E-2</v>
       </c>
       <c r="R38" s="38">
-        <v>4.7954282567070003E-2</v>
+        <v>4.7537340492580002E-2</v>
       </c>
       <c r="S38" s="37">
-        <v>0.47992859285572997</v>
+        <v>0.47596288226645</v>
       </c>
       <c r="T38" s="38">
-        <v>2.0945052639461501</v>
+        <v>2.0786760352925802</v>
       </c>
       <c r="U38" s="38">
-        <v>2.1013247765150001E-2</v>
+        <v>2.08522682903E-2</v>
       </c>
       <c r="V38" s="38">
-        <v>1.9992355105100001E-2</v>
+        <v>1.979832705209E-2</v>
       </c>
       <c r="W38" s="38">
-        <v>8.1234557730020002E-2</v>
+        <v>8.0366460558510003E-2</v>
       </c>
       <c r="X38" s="37">
-        <v>2.0132707062161299</v>
+        <v>1.99830957473408</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -4562,37 +4562,37 @@
         <v>2459.9349235557002</v>
       </c>
       <c r="N44" s="26">
-        <v>19.645272161369899</v>
+        <v>18.420884578514901</v>
       </c>
       <c r="O44" s="27">
-        <v>10.088445781897301</v>
+        <v>9.4596854550258591</v>
       </c>
       <c r="P44" s="27">
-        <v>9.2519349077380006E-2</v>
+        <v>8.6753099505799999E-2</v>
       </c>
       <c r="Q44" s="27">
-        <v>0.22002911899096</v>
+        <v>0.20631584900182001</v>
       </c>
       <c r="R44" s="27">
-        <v>0.33686220197090999</v>
+        <v>0.31586733390095001</v>
       </c>
       <c r="S44" s="26">
-        <v>9.7515835799263701</v>
+        <v>9.1438181211249194</v>
       </c>
       <c r="T44" s="27">
-        <v>6.5259233662798497</v>
+        <v>6.1191965227572602</v>
       </c>
       <c r="U44" s="27">
-        <v>0.18133816622136001</v>
+        <v>0.1700363019766</v>
       </c>
       <c r="V44" s="27">
-        <v>0.22128210621781999</v>
+        <v>0.20749074405518</v>
       </c>
       <c r="W44" s="27">
-        <v>0.24557207579129001</v>
+        <v>0.23026684622638999</v>
       </c>
       <c r="X44" s="26">
-        <v>6.2803512904885599</v>
+        <v>5.8889296765308599</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4636,37 +4636,37 @@
         <v>60276.133561852803</v>
       </c>
       <c r="N45" s="37">
-        <v>14.2162380673035</v>
+        <v>14.1629683850218</v>
       </c>
       <c r="O45" s="38">
-        <v>2.9103144389300399</v>
+        <v>2.8998913170856002</v>
       </c>
       <c r="P45" s="38">
-        <v>8.1236609836510001E-2</v>
+        <v>8.0930639251670003E-2</v>
       </c>
       <c r="Q45" s="38">
-        <v>4.6199877516879997E-2</v>
+        <v>4.6039173980500003E-2</v>
       </c>
       <c r="R45" s="38">
-        <v>8.4327649636639995E-2</v>
+        <v>8.4029175051949997E-2</v>
       </c>
       <c r="S45" s="37">
-        <v>2.8259867892933999</v>
+        <v>2.8158621420336498</v>
       </c>
       <c r="T45" s="38">
-        <v>8.1573837369009805</v>
+        <v>8.1264399767044004</v>
       </c>
       <c r="U45" s="38">
-        <v>7.9275715329409996E-2</v>
+        <v>7.8984366176370002E-2</v>
       </c>
       <c r="V45" s="38">
-        <v>5.5535566528510001E-2</v>
+        <v>5.5338955563550001E-2</v>
       </c>
       <c r="W45" s="38">
-        <v>8.1500947233950002E-2</v>
+        <v>8.1206120199909998E-2</v>
       </c>
       <c r="X45" s="37">
-        <v>8.0758827896670198</v>
+        <v>8.0452338565044705</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
@@ -5302,37 +5302,37 @@
         <v>238.14603306792</v>
       </c>
       <c r="N54" s="26">
-        <v>12.370908749319099</v>
+        <v>12.3712643591827</v>
       </c>
       <c r="O54" s="27">
-        <v>2.8524325891007098</v>
+        <v>2.8525145841412001</v>
       </c>
       <c r="P54" s="27">
-        <v>2.1493460110060002E-2</v>
+        <v>2.1494077953630002E-2</v>
       </c>
       <c r="Q54" s="27">
-        <v>8.7038399065329994E-2</v>
+        <v>8.7040901041039995E-2</v>
       </c>
       <c r="R54" s="27">
-        <v>0.43490034424834001</v>
+        <v>0.43491284574319999</v>
       </c>
       <c r="S54" s="26">
-        <v>2.4175322448523602</v>
+        <v>2.4176017383979902</v>
       </c>
       <c r="T54" s="27">
-        <v>7.8135232877408898</v>
+        <v>7.8137478925784603</v>
       </c>
       <c r="U54" s="27">
-        <v>3.0880895290799999E-3</v>
+        <v>3.0881782982300002E-3</v>
       </c>
       <c r="V54" s="27">
-        <v>1.343892615521E-2</v>
+        <v>1.343931246593E-2</v>
       </c>
       <c r="W54" s="27">
-        <v>8.205730524622E-2</v>
+        <v>8.2059664037129998E-2</v>
       </c>
       <c r="X54" s="26">
-        <v>7.7314659824946803</v>
+        <v>7.73168822854133</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
@@ -5376,37 +5376,37 @@
         <v>217.17921924428001</v>
       </c>
       <c r="N55" s="26">
-        <v>3.1881991491276298</v>
+        <v>3.1881991019512501</v>
       </c>
       <c r="O55" s="27">
-        <v>0.19784111010059</v>
+        <v>0.19784110717309</v>
       </c>
       <c r="P55" s="27">
-        <v>2.427228881307E-2</v>
+        <v>2.4272288453909999E-2</v>
       </c>
       <c r="Q55" s="27">
-        <v>3.0201820302989998E-2</v>
+        <v>3.0201819856089999E-2</v>
       </c>
       <c r="R55" s="27">
-        <v>4.1667827045229998E-2</v>
+        <v>4.166782642867E-2</v>
       </c>
       <c r="S55" s="26">
-        <v>0.15617328305535</v>
+        <v>0.15617328074442999</v>
       </c>
       <c r="T55" s="27">
-        <v>1.3483144638740301</v>
+        <v>1.3483144439227699</v>
       </c>
       <c r="U55" s="27">
-        <v>3.9612898877510003E-2</v>
+        <v>3.961289829135E-2</v>
       </c>
       <c r="V55" s="27">
-        <v>4.42724251624E-2</v>
+        <v>4.4272424507299998E-2</v>
       </c>
       <c r="W55" s="27">
-        <v>9.1565071542589999E-2</v>
+        <v>9.1565070187679995E-2</v>
       </c>
       <c r="X55" s="26">
-        <v>1.2567493923314299</v>
+        <v>1.2567493737350801</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
@@ -5598,37 +5598,37 @@
         <v>625.07750570235999</v>
       </c>
       <c r="N58" s="26">
-        <v>7.3218397893222802</v>
+        <v>7.2911738987222501</v>
       </c>
       <c r="O58" s="27">
-        <v>1.21018738526037</v>
+        <v>1.2051187856966299</v>
       </c>
       <c r="P58" s="27">
-        <v>1.0297693587050001E-2</v>
+        <v>1.0254563997479999E-2</v>
       </c>
       <c r="Q58" s="27">
-        <v>0.11340560069041</v>
+        <v>0.11293062666144001</v>
       </c>
       <c r="R58" s="27">
-        <v>0.17892381300457</v>
+        <v>0.17817443057703999</v>
       </c>
       <c r="S58" s="26">
-        <v>1.0312635722557899</v>
+        <v>1.02694435511959</v>
       </c>
       <c r="T58" s="27">
-        <v>2.7893859312984599</v>
+        <v>2.7777032113439502</v>
       </c>
       <c r="U58" s="27">
-        <v>3.0765772559050001E-2</v>
+        <v>3.0636916992320001E-2</v>
       </c>
       <c r="V58" s="27">
-        <v>3.7444122841969997E-2</v>
+        <v>3.7287296496720003E-2</v>
       </c>
       <c r="W58" s="27">
-        <v>0.10747884536322</v>
+        <v>0.10702869422517999</v>
       </c>
       <c r="X58" s="26">
-        <v>2.6819070859352401</v>
+        <v>2.67067451711877</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
@@ -5672,37 +5672,37 @@
         <v>96.010529873400003</v>
       </c>
       <c r="N59" s="26">
-        <v>7.3679725633148596</v>
+        <v>7.4495856157129996</v>
       </c>
       <c r="O59" s="27">
-        <v>2.7023182666546899</v>
+        <v>2.7322511200139701</v>
       </c>
       <c r="P59" s="27">
-        <v>1.397240504868E-2</v>
+        <v>1.412717362519E-2</v>
       </c>
       <c r="Q59" s="27">
-        <v>6.1936094447090001E-2</v>
+        <v>6.26221439238E-2</v>
       </c>
       <c r="R59" s="27">
-        <v>0.30030983376728998</v>
+        <v>0.30363628510628998</v>
       </c>
       <c r="S59" s="26">
-        <v>2.4020084328873899</v>
+        <v>2.4286148349076799</v>
       </c>
       <c r="T59" s="27">
-        <v>2.4154517962370101</v>
+        <v>2.44220710678105</v>
       </c>
       <c r="U59" s="27">
-        <v>5.4865215546700003E-3</v>
+        <v>5.5472942797700001E-3</v>
       </c>
       <c r="V59" s="27">
-        <v>1.504254278406E-2</v>
+        <v>1.520916498873E-2</v>
       </c>
       <c r="W59" s="27">
-        <v>8.4476613418889998E-2</v>
+        <v>8.5412338167880006E-2</v>
       </c>
       <c r="X59" s="26">
-        <v>2.3309751828181202</v>
+        <v>2.3567947686131698</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5820,37 +5820,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N61" s="37">
-        <v>6.6486055642573403</v>
+        <v>6.6482723993702004</v>
       </c>
       <c r="O61" s="38">
-        <v>0.41329065067832998</v>
+        <v>0.41337434489154001</v>
       </c>
       <c r="P61" s="38">
-        <v>8.2046998595300003E-3</v>
+        <v>8.2045437098999998E-3</v>
       </c>
       <c r="Q61" s="38">
-        <v>2.527915407405E-2</v>
+        <v>2.527404052582E-2</v>
       </c>
       <c r="R61" s="38">
-        <v>4.1246032785430001E-2</v>
+        <v>4.1252324231519998E-2</v>
       </c>
       <c r="S61" s="37">
-        <v>0.3720446178929</v>
+        <v>0.37212202066001998</v>
       </c>
       <c r="T61" s="38">
-        <v>3.8480587009215501</v>
+        <v>3.84784061725937</v>
       </c>
       <c r="U61" s="38">
-        <v>1.154620286917E-2</v>
+        <v>1.1543782130760001E-2</v>
       </c>
       <c r="V61" s="38">
-        <v>2.5043708711090001E-2</v>
+        <v>2.5040825076000001E-2</v>
       </c>
       <c r="W61" s="38">
-        <v>8.8682587565559995E-2</v>
+        <v>8.8676434776480004E-2</v>
       </c>
       <c r="X61" s="37">
-        <v>3.75937611335599</v>
+        <v>3.7591641824828899</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5894,37 +5894,37 @@
         <v>145934.05073111199</v>
       </c>
       <c r="N62" s="45">
-        <v>11.4358699684639</v>
+        <v>11.4008938049682</v>
       </c>
       <c r="O62" s="46">
-        <v>2.0791049548537899</v>
+        <v>2.07338023885776</v>
       </c>
       <c r="P62" s="46">
-        <v>5.4000475459979998E-2</v>
+        <v>5.3826721726280002E-2</v>
       </c>
       <c r="Q62" s="46">
-        <v>5.6485197110010002E-2</v>
+        <v>5.6296379464409997E-2</v>
       </c>
       <c r="R62" s="46">
-        <v>0.10211385822183</v>
+        <v>0.10179712028590999</v>
       </c>
       <c r="S62" s="45">
-        <v>1.9769910966319599</v>
+        <v>1.97158311857185</v>
       </c>
       <c r="T62" s="46">
-        <v>5.8787555825557103</v>
+        <v>5.8574681396429096</v>
       </c>
       <c r="U62" s="46">
-        <v>5.3716922784579998E-2</v>
+        <v>5.354717689704E-2</v>
       </c>
       <c r="V62" s="46">
-        <v>6.1079572900010003E-2</v>
+        <v>6.0859614651940001E-2</v>
       </c>
       <c r="W62" s="46">
-        <v>0.10845311951736</v>
+        <v>0.10799941796321</v>
       </c>
       <c r="X62" s="45">
-        <v>5.7703024630383499</v>
+        <v>5.7494687216797002</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5968,37 +5968,37 @@
         <v>2702179.4365219502</v>
       </c>
       <c r="N63" s="45">
-        <v>17.047841128658899</v>
+        <v>17.002025759882599</v>
       </c>
       <c r="O63" s="46">
-        <v>7.0762961565390103</v>
+        <v>7.0545395175133896</v>
       </c>
       <c r="P63" s="46">
-        <v>1.36598023062742</v>
+        <v>1.3623516858096401</v>
       </c>
       <c r="Q63" s="46">
         <v>0</v>
       </c>
       <c r="R63" s="46">
-        <v>3.9750710046206499</v>
+        <v>3.9624828338301898</v>
       </c>
       <c r="S63" s="45">
-        <v>3.1012251519183698</v>
+        <v>3.0920566836832002</v>
       </c>
       <c r="T63" s="46">
-        <v>7.6076682048926898</v>
+        <v>7.58870162459091</v>
       </c>
       <c r="U63" s="46">
-        <v>1.42301676425664</v>
+        <v>1.4186784676375701</v>
       </c>
       <c r="V63" s="46">
         <v>0</v>
       </c>
       <c r="W63" s="46">
-        <v>4.2563105894420996</v>
+        <v>4.2441491179852697</v>
       </c>
       <c r="X63" s="45">
-        <v>3.3513576154505902</v>
+        <v>3.3445525066056399</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
@@ -6042,37 +6042,37 @@
         <v>173784.20204953599</v>
       </c>
       <c r="N64" s="51">
-        <v>15.171155356074699</v>
+        <v>15.1859596783046</v>
       </c>
       <c r="O64" s="52">
-        <v>4.5014347283067098</v>
+        <v>4.5051745586843799</v>
       </c>
       <c r="P64" s="52">
-        <v>1.2788297209480299</v>
+        <v>1.2797136385518899</v>
       </c>
       <c r="Q64" s="52">
         <v>0</v>
       </c>
       <c r="R64" s="52">
-        <v>1.4991035114908999</v>
+        <v>1.50033637813792</v>
       </c>
       <c r="S64" s="51">
-        <v>3.0023312168158101</v>
+        <v>3.0048381805464599</v>
       </c>
       <c r="T64" s="52">
-        <v>4.2997485088902199</v>
+        <v>4.3041137552772</v>
       </c>
       <c r="U64" s="52">
-        <v>0.53430601603899996</v>
+        <v>0.53471090151049006</v>
       </c>
       <c r="V64" s="52">
         <v>0</v>
       </c>
       <c r="W64" s="52">
-        <v>0.83222405590824999</v>
+        <v>0.83323054557993004</v>
       </c>
       <c r="X64" s="51">
-        <v>3.46752445298198</v>
+        <v>3.4708832096972801</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
@@ -6116,37 +6116,37 @@
         <v>1014883.9473665101</v>
       </c>
       <c r="N65" s="56">
-        <v>15.1276857749257</v>
+        <v>15.0437206607428</v>
       </c>
       <c r="O65" s="57">
-        <v>3.2921065714842301</v>
+        <v>3.2716920119971098</v>
       </c>
       <c r="P65" s="57">
-        <v>0.38488925805002999</v>
+        <v>0.38309201275744997</v>
       </c>
       <c r="Q65" s="57">
         <v>0</v>
       </c>
       <c r="R65" s="57">
-        <v>1.90687309215793</v>
+        <v>1.8948429437175001</v>
       </c>
       <c r="S65" s="56">
-        <v>1.3852334793263099</v>
+        <v>1.3768490682796199</v>
       </c>
       <c r="T65" s="57">
-        <v>7.3795115872630799</v>
+        <v>7.3430242931119603</v>
       </c>
       <c r="U65" s="57">
-        <v>0.57374578077513005</v>
+        <v>0.56999140314665997</v>
       </c>
       <c r="V65" s="57">
         <v>0</v>
       </c>
       <c r="W65" s="57">
-        <v>2.9068079062792598</v>
+        <v>2.8907194290475098</v>
       </c>
       <c r="X65" s="56">
-        <v>4.4727036809838197</v>
+        <v>4.45230486406445</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6190,37 +6190,37 @@
         <v>2848113.4872530699</v>
       </c>
       <c r="N66" s="61">
-        <v>16.7651696090232</v>
+        <v>16.720021878319098</v>
       </c>
       <c r="O66" s="62">
-        <v>6.8245907235336603</v>
+        <v>6.8037498088305597</v>
       </c>
       <c r="P66" s="62">
-        <v>1.2998966210474401</v>
+        <v>1.2964705171522</v>
       </c>
       <c r="Q66" s="62">
-        <v>2.8451244755599999E-3</v>
+        <v>2.8343909150399999E-3</v>
       </c>
       <c r="R66" s="62">
-        <v>3.7799925463025601</v>
+        <v>3.76810634609881</v>
       </c>
       <c r="S66" s="61">
-        <v>3.0445981772311099</v>
+        <v>3.0356434627317701</v>
       </c>
       <c r="T66" s="62">
-        <v>7.52058394442113</v>
+        <v>7.5015380714773796</v>
       </c>
       <c r="U66" s="62">
-        <v>1.3540459773482501</v>
+        <v>1.3499473029495299</v>
       </c>
       <c r="V66" s="62">
-        <v>3.07654034518E-3</v>
+        <v>3.0641391240999998E-3</v>
       </c>
       <c r="W66" s="62">
-        <v>4.0473855716921703</v>
+        <v>4.0359036634016503</v>
       </c>
       <c r="X66" s="61">
-        <v>3.4731983727289601</v>
+        <v>3.4656344080757302</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
@@ -6264,37 +6264,37 @@
         <v>29486.6943419938</v>
       </c>
       <c r="N67" s="56">
-        <v>7.5406165900797699</v>
+        <v>7.4955130954767002</v>
       </c>
       <c r="O67" s="57">
-        <v>1.44376853245005</v>
+        <v>1.435544475255</v>
       </c>
       <c r="P67" s="57">
-        <v>3.3687456181379999E-2</v>
+        <v>3.339010288989E-2</v>
       </c>
       <c r="Q67" s="57">
-        <v>4.2704240146149999E-2</v>
+        <v>4.2358181826079998E-2</v>
       </c>
       <c r="R67" s="57">
-        <v>7.8058583020839997E-2</v>
+        <v>7.7495452879579999E-2</v>
       </c>
       <c r="S67" s="56">
-        <v>1.36570994942921</v>
+        <v>1.35804902237542</v>
       </c>
       <c r="T67" s="57">
-        <v>3.5934666813815399</v>
+        <v>3.56252755006637</v>
       </c>
       <c r="U67" s="57">
-        <v>2.703113003115E-2</v>
+        <v>2.6806114097690001E-2</v>
       </c>
       <c r="V67" s="57">
-        <v>7.0866215312689995E-2</v>
+        <v>7.0321181343640002E-2</v>
       </c>
       <c r="W67" s="57">
-        <v>0.10397604861544001</v>
+        <v>0.1031165916699</v>
       </c>
       <c r="X67" s="56">
-        <v>3.4894906327660999</v>
+        <v>3.4594109583964698</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
@@ -6338,37 +6338,37 @@
         <v>54865.192131075899</v>
       </c>
       <c r="N68" s="56">
-        <v>8.2019650387868897</v>
+        <v>8.1659151246966797</v>
       </c>
       <c r="O68" s="57">
-        <v>1.3297642133388199</v>
+        <v>1.3242316408735899</v>
       </c>
       <c r="P68" s="57">
-        <v>5.2658532778040001E-2</v>
+        <v>5.2422642186020003E-2</v>
       </c>
       <c r="Q68" s="57">
-        <v>2.8214160168219999E-2</v>
+        <v>2.8094198354009999E-2</v>
       </c>
       <c r="R68" s="57">
-        <v>5.2015258018789999E-2</v>
+        <v>5.1797638746960001E-2</v>
       </c>
       <c r="S68" s="56">
-        <v>1.2777489553200301</v>
+        <v>1.27243400212663</v>
       </c>
       <c r="T68" s="57">
-        <v>4.2648193240670196</v>
+        <v>4.2477977459642702</v>
       </c>
       <c r="U68" s="57">
-        <v>5.0529419991899999E-2</v>
+        <v>5.0311716278470003E-2</v>
       </c>
       <c r="V68" s="57">
-        <v>4.1667676236610003E-2</v>
+        <v>4.1490047820679998E-2</v>
       </c>
       <c r="W68" s="57">
-        <v>8.5485312840829997E-2</v>
+        <v>8.5150451486000006E-2</v>
       </c>
       <c r="X68" s="56">
-        <v>4.1793340112261896</v>
+        <v>4.1626472944782602</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
@@ -6412,37 +6412,37 @@
         <v>4960.6854805660596</v>
       </c>
       <c r="N69" s="56">
-        <v>4.2327234092964403</v>
+        <v>4.1954087649156397</v>
       </c>
       <c r="O69" s="57">
-        <v>0.44885742675002999</v>
+        <v>0.44796352700794001</v>
       </c>
       <c r="P69" s="57">
-        <v>2.4897138481480001E-2</v>
+        <v>2.4862808966729998E-2</v>
       </c>
       <c r="Q69" s="57">
-        <v>2.6768097404089999E-2</v>
+        <v>2.6727336470330001E-2</v>
       </c>
       <c r="R69" s="57">
-        <v>5.2654983258760002E-2</v>
+        <v>5.2545265404289998E-2</v>
       </c>
       <c r="S69" s="56">
-        <v>0.39620244349126998</v>
+        <v>0.39541826160364002</v>
       </c>
       <c r="T69" s="57">
-        <v>2.3911377854440699</v>
+        <v>2.3756271056323399</v>
       </c>
       <c r="U69" s="57">
-        <v>3.9048244402869997E-2</v>
+        <v>3.8998518093809997E-2</v>
       </c>
       <c r="V69" s="57">
-        <v>2.880780794473E-2</v>
+        <v>2.8693560830369998E-2</v>
       </c>
       <c r="W69" s="57">
-        <v>0.11846351733064001</v>
+        <v>0.11761671576797</v>
       </c>
       <c r="X69" s="56">
-        <v>2.2726742681134202</v>
+        <v>2.2580103898643702</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
@@ -6486,37 +6486,37 @@
         <v>14545.8593116712</v>
       </c>
       <c r="N70" s="56">
-        <v>14.649573304892099</v>
+        <v>14.5801498731465</v>
       </c>
       <c r="O70" s="57">
-        <v>1.4430123957502601</v>
+        <v>1.43589481515294</v>
       </c>
       <c r="P70" s="57">
-        <v>4.3087073116929997E-2</v>
+        <v>4.2941926647520001E-2</v>
       </c>
       <c r="Q70" s="57">
-        <v>4.6451196841329999E-2</v>
+        <v>4.6195901330639999E-2</v>
       </c>
       <c r="R70" s="57">
-        <v>0.11122886240759999</v>
+        <v>0.11076846254096</v>
       </c>
       <c r="S70" s="56">
-        <v>1.33178353334266</v>
+        <v>1.3251263526119801</v>
       </c>
       <c r="T70" s="57">
-        <v>6.4417431323749401</v>
+        <v>6.4129100443287097</v>
       </c>
       <c r="U70" s="57">
-        <v>2.1074460071509999E-2</v>
+        <v>2.1067731087020002E-2</v>
       </c>
       <c r="V70" s="57">
-        <v>3.0191809246029998E-2</v>
+        <v>3.0128271284340001E-2</v>
       </c>
       <c r="W70" s="57">
-        <v>8.2745795080140003E-2</v>
+        <v>8.2497440442580006E-2</v>
       </c>
       <c r="X70" s="56">
-        <v>6.3589973372947899</v>
+        <v>6.3304126038861099</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
@@ -6560,37 +6560,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N71" s="56">
-        <v>6.6486055642573403</v>
+        <v>6.6482723993702102</v>
       </c>
       <c r="O71" s="57">
-        <v>0.41329065067832998</v>
+        <v>0.41337434489154001</v>
       </c>
       <c r="P71" s="57">
-        <v>8.2046998595300003E-3</v>
+        <v>8.2045437098999998E-3</v>
       </c>
       <c r="Q71" s="57">
-        <v>2.527915407405E-2</v>
+        <v>2.527404052582E-2</v>
       </c>
       <c r="R71" s="57">
-        <v>4.1246032785430001E-2</v>
+        <v>4.1252324231519998E-2</v>
       </c>
       <c r="S71" s="56">
-        <v>0.3720446178929</v>
+        <v>0.37212202066001998</v>
       </c>
       <c r="T71" s="57">
-        <v>3.8480587009215501</v>
+        <v>3.84784061725937</v>
       </c>
       <c r="U71" s="57">
-        <v>1.154620286917E-2</v>
+        <v>1.1543782130760001E-2</v>
       </c>
       <c r="V71" s="57">
-        <v>2.5043708711090001E-2</v>
+        <v>2.5040825076000001E-2</v>
       </c>
       <c r="W71" s="57">
-        <v>8.8682587565559995E-2</v>
+        <v>8.8676434776480004E-2</v>
       </c>
       <c r="X71" s="56">
-        <v>3.75937611335599</v>
+        <v>3.7591641824828899</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
@@ -6634,37 +6634,37 @@
         <v>4081.4468037392098</v>
       </c>
       <c r="N72" s="56">
-        <v>3.71726819307026</v>
+        <v>3.6598617909396398</v>
       </c>
       <c r="O72" s="57">
-        <v>0.29649743177666998</v>
+        <v>0.29312206582778</v>
       </c>
       <c r="P72" s="57">
-        <v>1.0302807113339999E-2</v>
+        <v>1.0183093497789999E-2</v>
       </c>
       <c r="Q72" s="57">
-        <v>1.149375024823E-2</v>
+        <v>1.135820167912E-2</v>
       </c>
       <c r="R72" s="57">
-        <v>2.930442620738E-2</v>
+        <v>2.8955804198729999E-2</v>
       </c>
       <c r="S72" s="56">
-        <v>0.26719300556928999</v>
+        <v>0.26416626162905998</v>
       </c>
       <c r="T72" s="57">
-        <v>1.5344359104087999</v>
+        <v>1.5192907705754299</v>
       </c>
       <c r="U72" s="57">
-        <v>1.5593930375870001E-2</v>
+        <v>1.543651446851E-2</v>
       </c>
       <c r="V72" s="57">
-        <v>1.7812451640390001E-2</v>
+        <v>1.7581417004179999E-2</v>
       </c>
       <c r="W72" s="57">
-        <v>5.3376939365219998E-2</v>
+        <v>5.2511188466649997E-2</v>
       </c>
       <c r="X72" s="56">
-        <v>1.48105897104358</v>
+        <v>1.4667795821087799</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
@@ -6708,37 +6708,37 @@
         <v>50936.0976717546</v>
       </c>
       <c r="N73" s="56">
-        <v>16.582360597011501</v>
+        <v>16.5850358050503</v>
       </c>
       <c r="O73" s="57">
-        <v>3.6674688974120002</v>
+        <v>3.6687198934056</v>
       </c>
       <c r="P73" s="57">
-        <v>8.7367697467120004E-2</v>
+        <v>8.7298170662499994E-2</v>
       </c>
       <c r="Q73" s="57">
-        <v>0.12980409824243</v>
+        <v>0.12974424702531001</v>
       </c>
       <c r="R73" s="57">
-        <v>0.22534772252307</v>
+        <v>0.22529854371356001</v>
       </c>
       <c r="S73" s="56">
-        <v>3.4421211748889302</v>
+        <v>3.4434213496920401</v>
       </c>
       <c r="T73" s="57">
-        <v>7.2190778695049103</v>
+        <v>7.2009046035180804</v>
       </c>
       <c r="U73" s="57">
-        <v>8.4460331088320004E-2</v>
+        <v>8.438489986054E-2</v>
       </c>
       <c r="V73" s="57">
-        <v>0.13198998563365999</v>
+        <v>0.13184225272243999</v>
       </c>
       <c r="W73" s="57">
-        <v>0.19637371431365999</v>
+        <v>0.19597758280211</v>
       </c>
       <c r="X73" s="56">
-        <v>7.0227041551912404</v>
+        <v>7.0049270207159697</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
@@ -6782,37 +6782,37 @@
         <v>50173.146192504799</v>
       </c>
       <c r="N74" s="56">
-        <v>22.156578434788202</v>
+        <v>21.976052444674199</v>
       </c>
       <c r="O74" s="57">
-        <v>5.0129414053531898</v>
+        <v>4.97306236730845</v>
       </c>
       <c r="P74" s="57">
-        <v>0.16950250169195999</v>
+        <v>0.16811156066537</v>
       </c>
       <c r="Q74" s="57">
-        <v>9.6687878814919997E-2</v>
+        <v>9.5923057215239999E-2</v>
       </c>
       <c r="R74" s="57">
-        <v>0.16387115682716999</v>
+        <v>0.16256873597754001</v>
       </c>
       <c r="S74" s="56">
-        <v>4.8490702485260204</v>
+        <v>4.8104936313309201</v>
       </c>
       <c r="T74" s="57">
-        <v>13.659194231813199</v>
+        <v>13.5469476267244</v>
       </c>
       <c r="U74" s="57">
-        <v>0.15428624635398999</v>
+        <v>0.15303677888066999</v>
       </c>
       <c r="V74" s="57">
-        <v>5.3791346318209997E-2</v>
+        <v>5.3382752732390001E-2</v>
       </c>
       <c r="W74" s="57">
-        <v>8.4745331648460001E-2</v>
+        <v>8.4083993491459993E-2</v>
       </c>
       <c r="X74" s="56">
-        <v>13.5744489001647</v>
+        <v>13.462863633232899</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6856,37 +6856,37 @@
         <v>8443.9620299036505</v>
       </c>
       <c r="N75" s="61">
-        <v>20.785057680896401</v>
+        <v>20.781921164209599</v>
       </c>
       <c r="O75" s="62">
-        <v>2.03594800810184</v>
+        <v>2.0357284695337801</v>
       </c>
       <c r="P75" s="62">
-        <v>6.6603496961970002E-2</v>
+        <v>6.662131705438E-2</v>
       </c>
       <c r="Q75" s="62">
-        <v>9.7382268239309996E-2</v>
+        <v>9.7394810863280001E-2</v>
       </c>
       <c r="R75" s="62">
-        <v>0.14404562483242001</v>
+        <v>0.14405948437249</v>
       </c>
       <c r="S75" s="61">
-        <v>1.8919023832694299</v>
+        <v>1.8916689851613</v>
       </c>
       <c r="T75" s="62">
-        <v>8.3943337885316396</v>
+        <v>8.3930142989048502</v>
       </c>
       <c r="U75" s="62">
-        <v>6.3093005470210003E-2</v>
+        <v>6.3154236179469997E-2</v>
       </c>
       <c r="V75" s="62">
-        <v>9.5913877447330001E-2</v>
+        <v>9.5969874991979995E-2</v>
       </c>
       <c r="W75" s="62">
-        <v>0.12311656770153</v>
+        <v>0.12317678813625001</v>
       </c>
       <c r="X75" s="61">
-        <v>8.2712172208300903</v>
+        <v>8.2698375107685909</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
@@ -6930,37 +6930,37 @@
         <v>175227.039316696</v>
       </c>
       <c r="N76" s="56">
-        <v>29.568486410033302</v>
+        <v>29.5608304416251</v>
       </c>
       <c r="O76" s="57">
-        <v>14.694011933287699</v>
+        <v>14.6727296164721</v>
       </c>
       <c r="P76" s="57">
-        <v>0.80863781851570005</v>
+        <v>0.80862230321754003</v>
       </c>
       <c r="Q76" s="57">
         <v>0</v>
       </c>
       <c r="R76" s="57">
-        <v>9.7624195103635003</v>
+        <v>9.7475454870489493</v>
       </c>
       <c r="S76" s="56">
-        <v>4.9315924229241999</v>
+        <v>4.9251841294231902</v>
       </c>
       <c r="T76" s="57">
-        <v>12.6591061480691</v>
+        <v>12.656403171448501</v>
       </c>
       <c r="U76" s="57">
-        <v>0.73171993417868997</v>
+        <v>0.73174099509622004</v>
       </c>
       <c r="V76" s="57">
         <v>0</v>
       </c>
       <c r="W76" s="57">
-        <v>7.4449630164951701</v>
+        <v>7.4437086930727796</v>
       </c>
       <c r="X76" s="56">
-        <v>5.2141431315739197</v>
+        <v>5.2126944783756697</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
@@ -7004,37 +7004,37 @@
         <v>142975.47988690899</v>
       </c>
       <c r="N77" s="56">
-        <v>13.371860281879901</v>
+        <v>13.3933617289222</v>
       </c>
       <c r="O77" s="57">
-        <v>2.3188980446354401</v>
+        <v>2.32292338964786</v>
       </c>
       <c r="P77" s="57">
-        <v>0.43628818697108002</v>
+        <v>0.43707870876859001</v>
       </c>
       <c r="Q77" s="57">
         <v>0</v>
       </c>
       <c r="R77" s="57">
-        <v>0.52405425594377997</v>
+        <v>0.52502972576299001</v>
       </c>
       <c r="S77" s="56">
-        <v>1.7948437886916699</v>
+        <v>1.7978936638848699</v>
       </c>
       <c r="T77" s="57">
-        <v>4.9683961568941104</v>
+        <v>4.9761091813947997</v>
       </c>
       <c r="U77" s="57">
-        <v>0.46620301652050999</v>
+        <v>0.46689200131684</v>
       </c>
       <c r="V77" s="57">
         <v>0</v>
       </c>
       <c r="W77" s="57">
-        <v>0.55919264503892996</v>
+        <v>0.56004177269729005</v>
       </c>
       <c r="X77" s="56">
-        <v>4.4092035118551802</v>
+        <v>4.4160674086974998</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -7078,37 +7078,37 @@
         <v>365825.71761190199</v>
       </c>
       <c r="N78" s="56">
-        <v>29.871310331434099</v>
+        <v>29.846420922535799</v>
       </c>
       <c r="O78" s="57">
-        <v>21.715076139469801</v>
+        <v>21.699727461413602</v>
       </c>
       <c r="P78" s="57">
-        <v>5.3319065175257503</v>
+        <v>5.3292359944013397</v>
       </c>
       <c r="Q78" s="57">
         <v>0</v>
       </c>
       <c r="R78" s="57">
-        <v>12.8580511596354</v>
+        <v>12.849563684416101</v>
       </c>
       <c r="S78" s="56">
-        <v>8.8570249798343905</v>
+        <v>8.8501637769975705</v>
       </c>
       <c r="T78" s="57">
-        <v>13.546402696290199</v>
+        <v>13.5364790355642</v>
       </c>
       <c r="U78" s="57">
-        <v>5.07945275986852</v>
+        <v>5.0762727317434404</v>
       </c>
       <c r="V78" s="57">
         <v>0</v>
       </c>
       <c r="W78" s="57">
-        <v>11.3161844246009</v>
+        <v>11.3079642983875</v>
       </c>
       <c r="X78" s="56">
-        <v>2.2302182716893699</v>
+        <v>2.22851473717669</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7152,37 +7152,37 @@
         <v>1410292.3271423499</v>
       </c>
       <c r="N79" s="61">
-        <v>18.473703100383801</v>
+        <v>18.460920643882801</v>
       </c>
       <c r="O79" s="62">
-        <v>10.069885711842501</v>
+        <v>10.0631766014252</v>
       </c>
       <c r="P79" s="62">
-        <v>2.2412458323233801</v>
+        <v>2.2399729046011299</v>
       </c>
       <c r="Q79" s="62">
         <v>0</v>
       </c>
       <c r="R79" s="62">
-        <v>5.5584478767611003</v>
+        <v>5.5545351187131304</v>
       </c>
       <c r="S79" s="61">
-        <v>4.5114378350814199</v>
+        <v>4.5086414827120702</v>
       </c>
       <c r="T79" s="62">
-        <v>7.7469666571800699</v>
+        <v>7.7415734954525899</v>
       </c>
       <c r="U79" s="62">
-        <v>2.14765921402299</v>
+        <v>2.1459053705865698</v>
       </c>
       <c r="V79" s="62">
         <v>0</v>
       </c>
       <c r="W79" s="62">
-        <v>5.2092867562798197</v>
+        <v>5.2054972922739804</v>
       </c>
       <c r="X79" s="61">
-        <v>2.5376799009002502</v>
+        <v>2.5360762031786201</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
@@ -7226,37 +7226,37 @@
         <v>68903.429385236595</v>
       </c>
       <c r="N80" s="56">
-        <v>15.104007817587201</v>
+        <v>15.1017957366206</v>
       </c>
       <c r="O80" s="57">
-        <v>1.9331193067315</v>
+        <v>1.9329499067384901</v>
       </c>
       <c r="P80" s="57">
-        <v>2.0272075137970001E-2</v>
+        <v>2.0266743845379999E-2</v>
       </c>
       <c r="Q80" s="57">
-        <v>4.3060359492540001E-2</v>
+        <v>4.3051754720380003E-2</v>
       </c>
       <c r="R80" s="57">
-        <v>7.4824822967110002E-2</v>
+        <v>7.4812239212330003E-2</v>
       </c>
       <c r="S80" s="56">
-        <v>1.8582944837644</v>
+        <v>1.85813766752617</v>
       </c>
       <c r="T80" s="57">
-        <v>9.3368880384557205</v>
+        <v>9.3362169039181406</v>
       </c>
       <c r="U80" s="57">
-        <v>1.476896222167E-2</v>
+        <v>1.476933934864E-2</v>
       </c>
       <c r="V80" s="57">
-        <v>2.636242430487E-2</v>
+        <v>2.6358435584639999E-2</v>
       </c>
       <c r="W80" s="57">
-        <v>7.982063088086E-2</v>
+        <v>7.9816602490500002E-2</v>
       </c>
       <c r="X80" s="56">
-        <v>9.2570674075748496</v>
+        <v>9.2564003014276306</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -7300,37 +7300,37 @@
         <v>178811.34278700201</v>
       </c>
       <c r="N81" s="56">
-        <v>17.394783723424101</v>
+        <v>17.0184368867464</v>
       </c>
       <c r="O81" s="57">
-        <v>2.8251669998333502</v>
+        <v>2.76017991024358</v>
       </c>
       <c r="P81" s="57">
-        <v>0.62325766290762996</v>
+        <v>0.60811032654215003</v>
       </c>
       <c r="Q81" s="57">
         <v>0</v>
       </c>
       <c r="R81" s="57">
-        <v>1.4867234768087001</v>
+        <v>1.4527697422730901</v>
       </c>
       <c r="S81" s="56">
-        <v>1.3384435230246501</v>
+        <v>1.3074101679704999</v>
       </c>
       <c r="T81" s="57">
-        <v>8.8138680029740293</v>
+        <v>8.6279637765806605</v>
       </c>
       <c r="U81" s="57">
-        <v>0.94490537348949999</v>
+        <v>0.92275299284843004</v>
       </c>
       <c r="V81" s="57">
         <v>0</v>
       </c>
       <c r="W81" s="57">
-        <v>4.9736373153450204</v>
+        <v>4.8617020535961002</v>
       </c>
       <c r="X81" s="56">
-        <v>3.8402306876290102</v>
+        <v>3.7662617229845599</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
@@ -7374,37 +7374,37 @@
         <v>77030.621345875406</v>
       </c>
       <c r="N82" s="56">
-        <v>9.8546667914125994</v>
+        <v>9.8120843950366208</v>
       </c>
       <c r="O82" s="57">
-        <v>2.1420341522038999</v>
+        <v>2.1336674437692702</v>
       </c>
       <c r="P82" s="57">
-        <v>6.8539583841300003E-2</v>
+        <v>6.8234130957600003E-2</v>
       </c>
       <c r="Q82" s="57">
-        <v>6.2272164984509999E-2</v>
+        <v>6.1982340566040003E-2</v>
       </c>
       <c r="R82" s="57">
-        <v>0.11387718637859</v>
+        <v>0.11338181876412</v>
       </c>
       <c r="S82" s="56">
-        <v>2.02815696582531</v>
+        <v>2.0202856250051502</v>
       </c>
       <c r="T82" s="57">
-        <v>4.3880782277664903</v>
+        <v>4.3640298174335204</v>
       </c>
       <c r="U82" s="57">
-        <v>7.0505997109160001E-2</v>
+        <v>7.0194630499299998E-2</v>
       </c>
       <c r="V82" s="57">
-        <v>7.6044895337360002E-2</v>
+        <v>7.5671084657960005E-2</v>
       </c>
       <c r="W82" s="57">
-        <v>0.12079556243011</v>
+        <v>0.12009839363138999</v>
       </c>
       <c r="X82" s="56">
-        <v>4.2672826653363796</v>
+        <v>4.2439314238021204</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7448,37 +7448,37 @@
         <v>2523368.0937349498</v>
       </c>
       <c r="N83" s="61">
-        <v>17.0169760088549</v>
+        <v>17.0005337013489</v>
       </c>
       <c r="O83" s="62">
-        <v>7.4544901652984699</v>
+        <v>7.4449719327904198</v>
       </c>
       <c r="P83" s="62">
-        <v>1.4320551991658399</v>
+        <v>1.43092542031993</v>
       </c>
       <c r="Q83" s="62">
         <v>0</v>
       </c>
       <c r="R83" s="62">
-        <v>4.1964423372806996</v>
+        <v>4.1906596596205299</v>
       </c>
       <c r="S83" s="61">
-        <v>3.2580478280177898</v>
+        <v>3.2543122731699001</v>
       </c>
       <c r="T83" s="62">
-        <v>7.5003608236804098</v>
+        <v>7.4942145137722296</v>
       </c>
       <c r="U83" s="62">
-        <v>1.4655510785158401</v>
+        <v>1.4637667691835199</v>
       </c>
       <c r="V83" s="62">
         <v>0</v>
       </c>
       <c r="W83" s="62">
-        <v>4.1924949159917704</v>
+        <v>4.1880027524587797</v>
       </c>
       <c r="X83" s="61">
-        <v>3.3078659076886399</v>
+        <v>3.3062117613134498</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
@@ -7522,37 +7522,37 @@
         <v>7839.0899770331498</v>
       </c>
       <c r="N84" s="56">
-        <v>3.9744640092243402</v>
+        <v>3.92860159122869</v>
       </c>
       <c r="O84" s="57">
-        <v>0.37316418183081002</v>
+        <v>0.37028851258404999</v>
       </c>
       <c r="P84" s="57">
-        <v>3.3116082637180001E-2</v>
+        <v>3.2854698795290002E-2</v>
       </c>
       <c r="Q84" s="57">
-        <v>3.6977966856180003E-2</v>
+        <v>3.668982509562E-2</v>
       </c>
       <c r="R84" s="57">
-        <v>7.1135681654179994E-2</v>
+        <v>7.0588319960990006E-2</v>
       </c>
       <c r="S84" s="56">
-        <v>0.30202850017664001</v>
+        <v>0.29970019262306002</v>
       </c>
       <c r="T84" s="57">
-        <v>2.0867667028288999</v>
+        <v>2.0710824846919098</v>
       </c>
       <c r="U84" s="57">
-        <v>2.7536280136410001E-2</v>
+        <v>2.7327632398400001E-2</v>
       </c>
       <c r="V84" s="57">
-        <v>3.2592317154759999E-2</v>
+        <v>3.2306555620769999E-2</v>
       </c>
       <c r="W84" s="57">
-        <v>8.1254747775139996E-2</v>
+        <v>8.0382385607680004E-2</v>
       </c>
       <c r="X84" s="56">
-        <v>2.0055119550537599</v>
+        <v>1.9907000990842301</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -7670,37 +7670,37 @@
         <v>95058.609647245394</v>
       </c>
       <c r="N86" s="56">
-        <v>11.0303336711551</v>
+        <v>11.0044595253054</v>
       </c>
       <c r="O86" s="57">
-        <v>1.7290733898177999</v>
+        <v>1.72523694256028</v>
       </c>
       <c r="P86" s="57">
-        <v>5.0557317494979999E-2</v>
+        <v>5.0394584405550003E-2</v>
       </c>
       <c r="Q86" s="57">
-        <v>4.0932443612719999E-2</v>
+        <v>4.078086265447E-2</v>
       </c>
       <c r="R86" s="57">
-        <v>7.2781719795820002E-2</v>
+        <v>7.2559088178049999E-2</v>
       </c>
       <c r="S86" s="56">
-        <v>1.6562916700219901</v>
+        <v>1.65267785438224</v>
       </c>
       <c r="T86" s="57">
-        <v>6.0311396245743802</v>
+        <v>6.0101760578725898</v>
       </c>
       <c r="U86" s="57">
-        <v>4.9580177472630001E-2</v>
+        <v>4.9436002339250003E-2</v>
       </c>
       <c r="V86" s="57">
-        <v>5.3836815975110003E-2</v>
+        <v>5.3648939419749998E-2</v>
       </c>
       <c r="W86" s="57">
-        <v>0.10105422712577999</v>
+        <v>0.10066279819484</v>
       </c>
       <c r="X86" s="56">
-        <v>5.9300853974485896</v>
+        <v>5.9095132596777402</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -7744,37 +7744,37 @@
         <v>239268.42166730401</v>
       </c>
       <c r="N87" s="56">
-        <v>13.4417537138181</v>
+        <v>13.289169951877801</v>
       </c>
       <c r="O87" s="57">
-        <v>2.7220131118359299</v>
+        <v>2.68762363508313</v>
       </c>
       <c r="P87" s="57">
-        <v>0.54787390015479998</v>
+        <v>0.54150653758866996</v>
       </c>
       <c r="Q87" s="57">
         <v>0</v>
       </c>
       <c r="R87" s="57">
-        <v>1.7686941148948301</v>
+        <v>1.74534749775095</v>
       </c>
       <c r="S87" s="56">
-        <v>0.95331899694110001</v>
+        <v>0.94227613733217996</v>
       </c>
       <c r="T87" s="57">
-        <v>6.7446889542832897</v>
+        <v>6.6775075085213498</v>
       </c>
       <c r="U87" s="57">
-        <v>0.52223995841627002</v>
+        <v>0.51500210661659995</v>
       </c>
       <c r="V87" s="57">
         <v>0</v>
       </c>
       <c r="W87" s="57">
-        <v>3.1008170685671401</v>
+        <v>3.0636179302944999</v>
       </c>
       <c r="X87" s="56">
-        <v>3.6438718857161501</v>
+        <v>3.6138895782268601</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -7818,37 +7818,37 @@
         <v>42949.500934081603</v>
       </c>
       <c r="N88" s="56">
-        <v>20.7214075237972</v>
+        <v>20.720103143747501</v>
       </c>
       <c r="O88" s="57">
-        <v>5.2854917168970896</v>
+        <v>5.2853378151694699</v>
       </c>
       <c r="P88" s="57">
-        <v>9.0056708136819999E-2</v>
+        <v>9.0122840756320002E-2</v>
       </c>
       <c r="Q88" s="57">
-        <v>0.14157500500485001</v>
+        <v>0.14163877395005001</v>
       </c>
       <c r="R88" s="57">
-        <v>0.25615078418656001</v>
+        <v>0.25621005509897998</v>
       </c>
       <c r="S88" s="56">
-        <v>5.0293409327105403</v>
+        <v>5.0291277600704998</v>
       </c>
       <c r="T88" s="57">
-        <v>9.0644590682500592</v>
+        <v>9.0639400750783707</v>
       </c>
       <c r="U88" s="57">
-        <v>9.8109452361289998E-2</v>
+        <v>9.8113678733029994E-2</v>
       </c>
       <c r="V88" s="57">
-        <v>0.1211014150714</v>
+        <v>0.12110342609852</v>
       </c>
       <c r="W88" s="57">
-        <v>0.16755806959316999</v>
+        <v>0.16755690516735999</v>
       </c>
       <c r="X88" s="56">
-        <v>8.8969009986568892</v>
+        <v>8.8963831699110099</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
@@ -7892,37 +7892,37 @@
         <v>956767.75482942699</v>
       </c>
       <c r="N89" s="56">
-        <v>16.005940257752901</v>
+        <v>15.997266902479</v>
       </c>
       <c r="O89" s="57">
-        <v>4.1513479731147997</v>
+        <v>4.1491116841309701</v>
       </c>
       <c r="P89" s="57">
-        <v>0.64070475386278003</v>
+        <v>0.64028944442313995</v>
       </c>
       <c r="Q89" s="57">
         <v>0</v>
       </c>
       <c r="R89" s="57">
-        <v>2.1020265597047101</v>
+        <v>2.1007959545168302</v>
       </c>
       <c r="S89" s="56">
-        <v>2.0493214134100901</v>
+        <v>2.0483157296141399</v>
       </c>
       <c r="T89" s="57">
-        <v>7.0167940260001398</v>
+        <v>7.0126936461655101</v>
       </c>
       <c r="U89" s="57">
-        <v>0.77344254360942</v>
+        <v>0.77286099986748003</v>
       </c>
       <c r="V89" s="57">
         <v>0</v>
       </c>
       <c r="W89" s="57">
-        <v>3.14824256378221</v>
+        <v>3.1457009925807302</v>
       </c>
       <c r="X89" s="56">
-        <v>3.86855146221794</v>
+        <v>3.8669926535847901</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7966,37 +7966,37 @@
         <v>1478786.99790349</v>
       </c>
       <c r="N90" s="61">
-        <v>18.845008358538799</v>
+        <v>18.824578508974501</v>
       </c>
       <c r="O90" s="62">
-        <v>10.6026531194347</v>
+        <v>10.5904362420673</v>
       </c>
       <c r="P90" s="62">
-        <v>2.1577256904295901</v>
+        <v>2.1562312353331201</v>
       </c>
       <c r="Q90" s="62">
-        <v>2.6292796690000001E-5</v>
+        <v>2.6154186639999998E-5</v>
       </c>
       <c r="R90" s="62">
-        <v>6.0526621605383601</v>
+        <v>6.0450423730656402</v>
       </c>
       <c r="S90" s="61">
-        <v>4.5499909588963501</v>
+        <v>4.5453938690016704</v>
       </c>
       <c r="T90" s="62">
-        <v>8.2244605409648806</v>
+        <v>8.2145662198175309</v>
       </c>
       <c r="U90" s="62">
-        <v>2.18598429391204</v>
+        <v>2.1838888825834002</v>
       </c>
       <c r="V90" s="62">
-        <v>8.5305474171099996E-7</v>
+        <v>8.4855761815500005E-7</v>
       </c>
       <c r="W90" s="62">
-        <v>5.4383831091343504</v>
+        <v>5.4324716085843301</v>
       </c>
       <c r="X90" s="61">
-        <v>2.7860774318305301</v>
+        <v>2.7820946112331999</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
@@ -8040,37 +8040,37 @@
         <v>21034.403540349402</v>
       </c>
       <c r="N91" s="56">
-        <v>7.3276246124952804</v>
+        <v>7.27728234306388</v>
       </c>
       <c r="O91" s="57">
-        <v>0.76778741739782996</v>
+        <v>0.76340457716915999</v>
       </c>
       <c r="P91" s="57">
-        <v>4.0601365463430003E-2</v>
+        <v>4.0387686654669998E-2</v>
       </c>
       <c r="Q91" s="57">
-        <v>5.685724099825E-2</v>
+        <v>5.6549819946050003E-2</v>
       </c>
       <c r="R91" s="57">
-        <v>0.10368855812347</v>
+        <v>0.10312065742531</v>
       </c>
       <c r="S91" s="56">
-        <v>0.66409885927435996</v>
+        <v>0.66028391974385003</v>
       </c>
       <c r="T91" s="57">
-        <v>3.5414278955534702</v>
+        <v>3.52251720336259</v>
       </c>
       <c r="U91" s="57">
-        <v>3.010942136036E-2</v>
+        <v>2.9959335326920002E-2</v>
       </c>
       <c r="V91" s="57">
-        <v>6.4219668797590002E-2</v>
+        <v>6.3874048189349997E-2</v>
       </c>
       <c r="W91" s="57">
-        <v>0.12748616513026001</v>
+        <v>0.12668014805374</v>
       </c>
       <c r="X91" s="56">
-        <v>3.4139417304232098</v>
+        <v>3.3958370553088502</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
@@ -8114,37 +8114,37 @@
         <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="56">
-        <v>6.4693835939235003</v>
+        <v>6.4686329966002196</v>
       </c>
       <c r="O92" s="57">
-        <v>0.64079810285893002</v>
+        <v>0.64119910381300005</v>
       </c>
       <c r="P92" s="57">
-        <v>0.16846727682137</v>
+        <v>0.16847263820151001</v>
       </c>
       <c r="Q92" s="57">
         <v>0</v>
       </c>
       <c r="R92" s="57">
-        <v>0.46344204697379998</v>
+        <v>0.46355760378677002</v>
       </c>
       <c r="S92" s="56">
-        <v>0.17735605588511999</v>
+        <v>0.17764150002623</v>
       </c>
       <c r="T92" s="57">
-        <v>2.95586393404067</v>
+        <v>2.9552387905390098</v>
       </c>
       <c r="U92" s="57">
-        <v>0.47583956647164999</v>
+        <v>0.47588887411934</v>
       </c>
       <c r="V92" s="57">
         <v>0</v>
       </c>
       <c r="W92" s="57">
-        <v>1.21673487893842</v>
+        <v>1.21667284800056</v>
       </c>
       <c r="X92" s="56">
-        <v>1.73912905510226</v>
+        <v>1.7385659425384501</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -8188,37 +8188,37 @@
         <v>795.93663918671996</v>
       </c>
       <c r="N93" s="56">
-        <v>13.863039027941101</v>
+        <v>13.797041525702999</v>
       </c>
       <c r="O93" s="57">
-        <v>6.55162374363747</v>
+        <v>6.5193169760474596</v>
       </c>
       <c r="P93" s="57">
         <v>0</v>
       </c>
       <c r="Q93" s="57">
-        <v>0.12316574889267</v>
+        <v>0.12244266681179</v>
       </c>
       <c r="R93" s="57">
-        <v>0.45695771203426</v>
+        <v>0.45453262702574998</v>
       </c>
       <c r="S93" s="56">
-        <v>6.09466603160321</v>
+        <v>6.0647843490217097</v>
       </c>
       <c r="T93" s="57">
-        <v>4.5667809856470898</v>
+        <v>4.5447535385925901</v>
       </c>
       <c r="U93" s="57">
         <v>0</v>
       </c>
       <c r="V93" s="57">
-        <v>6.6332629466630003E-2</v>
+        <v>6.6032161678440005E-2</v>
       </c>
       <c r="W93" s="57">
-        <v>0.16465868980680001</v>
+        <v>0.16387406575784</v>
       </c>
       <c r="X93" s="56">
-        <v>4.4021222958403001</v>
+        <v>4.3808794728347502</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.35">
@@ -8262,37 +8262,37 @@
         <v>34029.151711217499</v>
       </c>
       <c r="N94" s="56">
-        <v>24.5565505116057</v>
+        <v>24.492999791146602</v>
       </c>
       <c r="O94" s="57">
-        <v>43.4048085571225</v>
+        <v>43.2218798136308</v>
       </c>
       <c r="P94" s="57">
-        <v>9.0898978315099993E-3</v>
+        <v>9.0760311171800001E-3</v>
       </c>
       <c r="Q94" s="57">
         <v>0</v>
       </c>
       <c r="R94" s="57">
-        <v>30.107015555701299</v>
+        <v>29.978067695667299</v>
       </c>
       <c r="S94" s="56">
-        <v>13.2977930014212</v>
+        <v>13.2438121179635</v>
       </c>
       <c r="T94" s="57">
-        <v>9.3511313314968891</v>
+        <v>9.3222506675273102</v>
       </c>
       <c r="U94" s="57">
-        <v>4.1799682216600003E-3</v>
+        <v>4.1664437158600003E-3</v>
       </c>
       <c r="V94" s="57">
         <v>0</v>
       </c>
       <c r="W94" s="57">
-        <v>4.4264765055791004</v>
+        <v>4.4133226223386597</v>
       </c>
       <c r="X94" s="56">
-        <v>4.9246548259178002</v>
+        <v>4.9089280451886497</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
@@ -8336,37 +8336,37 @@
         <v>5634.6855966949797</v>
       </c>
       <c r="N95" s="56">
-        <v>5.09632934279061</v>
+        <v>5.0666418746933903</v>
       </c>
       <c r="O95" s="57">
-        <v>0.51648824654087</v>
+        <v>0.51511380462379996</v>
       </c>
       <c r="P95" s="57">
-        <v>8.7186356736850004E-2</v>
+        <v>8.6850618467390006E-2</v>
       </c>
       <c r="Q95" s="57">
-        <v>0.10016778472724</v>
+        <v>9.9827264907470001E-2</v>
       </c>
       <c r="R95" s="57">
-        <v>0.14429551908440999</v>
+        <v>0.14387139644274999</v>
       </c>
       <c r="S95" s="56">
-        <v>0.37219272745644999</v>
+        <v>0.37124240818104998</v>
       </c>
       <c r="T95" s="57">
-        <v>2.0019793040510199</v>
+        <v>1.9471609769046301</v>
       </c>
       <c r="U95" s="57">
-        <v>2.2647196760300001E-2</v>
+        <v>2.2341597938949999E-2</v>
       </c>
       <c r="V95" s="57">
-        <v>9.7548219647260001E-2</v>
+        <v>9.7060560960249995E-2</v>
       </c>
       <c r="W95" s="57">
-        <v>0.14182566281708001</v>
+        <v>0.14022293719133</v>
       </c>
       <c r="X95" s="56">
-        <v>1.8601536412339399</v>
+        <v>1.8069380397132999</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8410,37 +8410,37 @@
         <v>12512.4443017711</v>
       </c>
       <c r="N96" s="61">
-        <v>14.690692360819201</v>
+        <v>14.5616636010456</v>
       </c>
       <c r="O96" s="62">
-        <v>2.3773254965961299</v>
+        <v>2.35858206467742</v>
       </c>
       <c r="P96" s="62">
-        <v>0.80575298781787996</v>
+        <v>0.79826314470467996</v>
       </c>
       <c r="Q96" s="62">
         <v>0</v>
       </c>
       <c r="R96" s="62">
-        <v>1.38363895915113</v>
+        <v>1.3721828498937401</v>
       </c>
       <c r="S96" s="61">
-        <v>0.99368653744501001</v>
+        <v>0.98639921478367998</v>
       </c>
       <c r="T96" s="62">
-        <v>5.8085025124138303</v>
+        <v>5.7555042398720904</v>
       </c>
       <c r="U96" s="62">
-        <v>1.0021405953557501</v>
+        <v>0.99222655985459995</v>
       </c>
       <c r="V96" s="62">
         <v>0</v>
       </c>
       <c r="W96" s="62">
-        <v>3.5407695644483099</v>
+        <v>3.5061758352606498</v>
       </c>
       <c r="X96" s="61">
-        <v>2.2677329479655199</v>
+        <v>2.2493284046114499</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
@@ -8484,37 +8484,37 @@
         <v>53241.185577758602</v>
       </c>
       <c r="N97" s="56">
-        <v>7.8158408984208503</v>
+        <v>7.7857025758891698</v>
       </c>
       <c r="O97" s="57">
-        <v>0.69604591149766004</v>
+        <v>0.69362186367053003</v>
       </c>
       <c r="P97" s="57">
-        <v>3.3445826457480003E-2</v>
+        <v>3.3271002463920001E-2</v>
       </c>
       <c r="Q97" s="57">
-        <v>4.1376324879070003E-2</v>
+        <v>4.1160034818539998E-2</v>
       </c>
       <c r="R97" s="57">
-        <v>7.1941155119679995E-2</v>
+        <v>7.1631488065150004E-2</v>
       </c>
       <c r="S97" s="56">
-        <v>0.62410475637799001</v>
+        <v>0.62199037560537995</v>
       </c>
       <c r="T97" s="57">
-        <v>4.2237597680193204</v>
+        <v>4.2009167424255098</v>
       </c>
       <c r="U97" s="57">
-        <v>2.3920975742820001E-2</v>
+        <v>2.3796861880010001E-2</v>
       </c>
       <c r="V97" s="57">
-        <v>4.646518089091E-2</v>
+        <v>4.6211420772039997E-2</v>
       </c>
       <c r="W97" s="57">
-        <v>0.10981757674129</v>
+        <v>0.10916804638794</v>
       </c>
       <c r="X97" s="56">
-        <v>4.1139421912780296</v>
+        <v>4.0917486960375697</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.35">
@@ -8558,37 +8558,37 @@
         <v>75961.094261720806</v>
       </c>
       <c r="N98" s="56">
-        <v>10.2520165570141</v>
+        <v>9.5940845607615799</v>
       </c>
       <c r="O98" s="57">
-        <v>0.85699778044802999</v>
+        <v>0.80331991274917003</v>
       </c>
       <c r="P98" s="57">
-        <v>0.12120311194378</v>
+        <v>0.11215027258786001</v>
       </c>
       <c r="Q98" s="57">
         <v>0</v>
       </c>
       <c r="R98" s="57">
-        <v>0.38020323504770998</v>
+        <v>0.35709014557520002</v>
       </c>
       <c r="S98" s="56">
-        <v>0.47679454540032001</v>
+        <v>0.44622976717397</v>
       </c>
       <c r="T98" s="57">
-        <v>5.3767039562416397</v>
+        <v>5.0510462259224704</v>
       </c>
       <c r="U98" s="57">
-        <v>0.41012610938624</v>
+        <v>0.37956848017895001</v>
       </c>
       <c r="V98" s="57">
         <v>0</v>
       </c>
       <c r="W98" s="57">
-        <v>1.30848309490601</v>
+        <v>1.2351088424386001</v>
       </c>
       <c r="X98" s="56">
-        <v>4.0682208613356297</v>
+        <v>3.8159373834838801</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8632,37 +8632,37 @@
         <v>19934.1416918949</v>
       </c>
       <c r="N99" s="61">
-        <v>7.7127299458746803</v>
+        <v>7.6346446280066003</v>
       </c>
       <c r="O99" s="62">
-        <v>0.48989978614128998</v>
+        <v>0.48567005011538</v>
       </c>
       <c r="P99" s="62">
-        <v>4.2940753526970001E-2</v>
+        <v>4.2597247374509997E-2</v>
       </c>
       <c r="Q99" s="62">
-        <v>3.4197720810100001E-3</v>
+        <v>3.3821635590400002E-3</v>
       </c>
       <c r="R99" s="62">
-        <v>0.24468490719805999</v>
+        <v>0.24272602928827999</v>
       </c>
       <c r="S99" s="61">
-        <v>0.24521487894322999</v>
+        <v>0.24294402082710001</v>
       </c>
       <c r="T99" s="62">
-        <v>4.2030855152421696</v>
+        <v>4.1697669004494697</v>
       </c>
       <c r="U99" s="62">
-        <v>3.6000209941900001E-2</v>
+        <v>3.5714763342520002E-2</v>
       </c>
       <c r="V99" s="62">
-        <v>2.2252597740399999E-3</v>
+        <v>2.16127453037E-3</v>
       </c>
       <c r="W99" s="62">
-        <v>0.79199774812759005</v>
+        <v>0.78550919645136996</v>
       </c>
       <c r="X99" s="61">
-        <v>3.4110877671145801</v>
+        <v>3.3842577039981099</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab26.xlsx
+++ b/AfDD_2022_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
     <t>Source: UNCTAD-Eora Global Value Chain (GVC) database (updated 01/09/2021).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -8753,7 +8753,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
